--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1075EB08-8A0B-44CB-BEA4-1770BD8BAE83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE1738B-B0A5-4C5B-ACB4-B5C1A3B6FED2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27270" yWindow="510" windowWidth="14400" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -102,8 +102,12 @@
     <definedName name="A2_27_2_3">取得!$V$189</definedName>
     <definedName name="A2_28">取得!$AF$84</definedName>
     <definedName name="A2_28_1">取得!$AF$119</definedName>
+    <definedName name="A2_28_2">取得!$AF$154</definedName>
+    <definedName name="A2_28_3">取得!$AF$189</definedName>
     <definedName name="A2_29">取得!$N$86</definedName>
     <definedName name="A2_29_1">取得!$N$121</definedName>
+    <definedName name="A2_29_2">取得!$N$156</definedName>
+    <definedName name="A2_29_3">取得!$N$191</definedName>
     <definedName name="A2_3">取得!$AZ$58</definedName>
     <definedName name="A2_3_1">取得!$AZ$93</definedName>
     <definedName name="A2_3_2">取得!$AZ$128</definedName>
@@ -122,18 +126,21 @@
     <definedName name="A2_9_1">取得!$CJ$55</definedName>
     <definedName name="A2_9_1_1">取得!$CJ$90</definedName>
     <definedName name="A2_9_1_2">取得!$CJ$125</definedName>
+    <definedName name="A2_9_1_3">取得!$CJ$160</definedName>
     <definedName name="A2_9_2">取得!$CM$55</definedName>
     <definedName name="A2_9_2_1">取得!$CM$90</definedName>
     <definedName name="A2_9_2_2">取得!$CM$125</definedName>
     <definedName name="A2_9_3">取得!$CP$55</definedName>
     <definedName name="A2_9_3_1">取得!$CP$90</definedName>
     <definedName name="A2_9_3_2">取得!$CP$125</definedName>
+    <definedName name="A2_9_3_3">取得!$CP$160</definedName>
     <definedName name="A2_9_4">取得!$CS$55</definedName>
     <definedName name="A2_9_4_1">取得!$CS$90</definedName>
     <definedName name="A2_9_4_2">取得!$CS$125</definedName>
     <definedName name="A2_9_5">取得!$CV$55</definedName>
     <definedName name="A2_9_5_1">取得!$CV$90</definedName>
     <definedName name="A2_9_5_2">取得!$CV$125</definedName>
+    <definedName name="A2_9_5_3">取得!$CV$160</definedName>
     <definedName name="A2_9_6">取得!$CY$55</definedName>
     <definedName name="A2_9_6_1">取得!$CY$90</definedName>
     <definedName name="A2_9_6_2">取得!$CY$125</definedName>
@@ -13864,9 +13871,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:EM271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ130" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="EI123" sqref="EI123"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4981D2-8156-4BD0-9974-02C329C0045A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A10738-5759-4E93-AD2D-B1C19F8CAD74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DAD32F-8555-4D3A-A5A1-517077C16430}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB7BEEC-9177-413D-8EC3-C1AD79EF4A9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32970" yWindow="2265" windowWidth="20385" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <definedName name="A2_19_6">取得!$AV$65</definedName>
     <definedName name="A2_19_6_1">取得!$AV$100</definedName>
     <definedName name="A2_19_6_2">取得!$AV$135</definedName>
+    <definedName name="A2_19_6_3">取得!$AV$170</definedName>
     <definedName name="A2_19_7">取得!$AZ$65</definedName>
     <definedName name="A2_19_7_1">取得!$AZ$100</definedName>
     <definedName name="A2_19_7_2">取得!$AZ$135</definedName>
@@ -7576,15 +7577,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>119</xdr:col>
-      <xdr:colOff>58954</xdr:colOff>
+      <xdr:colOff>11329</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>50674</xdr:rowOff>
+      <xdr:rowOff>79249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>121</xdr:col>
-      <xdr:colOff>53351</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>62938</xdr:rowOff>
+      <xdr:colOff>5726</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>5788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7599,7 +7600,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11393704" y="5441824"/>
+          <a:off x="11346079" y="5470399"/>
           <a:ext cx="184897" cy="183714"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -9357,16 +9358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>120</xdr:col>
-      <xdr:colOff>2241</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>78807</xdr:rowOff>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>49866</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>21657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>121</xdr:col>
-      <xdr:colOff>86285</xdr:colOff>
+      <xdr:colOff>38660</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>4287</xdr:rowOff>
+      <xdr:rowOff>32862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9381,7 +9382,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11432241" y="8470332"/>
+          <a:off x="11384616" y="8498907"/>
           <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -10347,16 +10348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>120</xdr:col>
-      <xdr:colOff>36977</xdr:colOff>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>84602</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>10084</xdr:rowOff>
+      <xdr:rowOff>38659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>122</xdr:col>
-      <xdr:colOff>25771</xdr:colOff>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>73396</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>21288</xdr:rowOff>
+      <xdr:rowOff>49863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10371,7 +10372,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11466977" y="11487709"/>
+          <a:off x="11419352" y="11516284"/>
           <a:ext cx="179294" cy="182654"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -12393,16 +12394,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>120</xdr:col>
-      <xdr:colOff>22410</xdr:colOff>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>70035</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>10085</xdr:rowOff>
+      <xdr:rowOff>38660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>122</xdr:col>
-      <xdr:colOff>11204</xdr:colOff>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>58829</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>21289</xdr:rowOff>
+      <xdr:rowOff>49864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12417,7 +12418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11452410" y="14488085"/>
+          <a:off x="11404785" y="14516660"/>
           <a:ext cx="179294" cy="182654"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -13886,8 +13887,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:EM271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F44" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="EA60" sqref="EA60"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C34EA8-4609-4B81-856D-B004A90E3F2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9C4DB8-60B8-4DE1-B4BD-001DA01FDC35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7644,14 +7644,14 @@
     <xdr:from>
       <xdr:col>119</xdr:col>
       <xdr:colOff>31374</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>72839</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>121</xdr:col>
       <xdr:colOff>14565</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>84043</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>64993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7666,7 +7666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11366124" y="5806889"/>
+          <a:off x="11366124" y="5702114"/>
           <a:ext cx="173691" cy="182654"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -8435,15 +8435,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>104</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:colOff>49866</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:rowOff>60511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>106</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
+      <xdr:colOff>38660</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>33616</xdr:rowOff>
+      <xdr:rowOff>71716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8458,8 +8458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10567147" y="7765676"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="9955866" y="7594786"/>
+          <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -8501,15 +8501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>104</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:colOff>38660</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>8404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>106</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:colOff>27454</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>19609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8524,8 +8524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10555941" y="7888941"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="9944660" y="7714129"/>
+          <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -10613,15 +10613,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>84</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>19053</xdr:rowOff>
+      <xdr:rowOff>76203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>32497</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>30257</xdr:rowOff>
+      <xdr:colOff>13447</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>1682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10636,7 +10636,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8039100" y="10125078"/>
+          <a:off x="8020050" y="10182228"/>
           <a:ext cx="184897" cy="182654"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -10679,15 +10679,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>84</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
+      <xdr:colOff>25773</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>25775</xdr:rowOff>
+      <xdr:rowOff>82925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>29695</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>36980</xdr:rowOff>
+      <xdr:colOff>10645</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>8405</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10702,7 +10702,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8045823" y="10303250"/>
+          <a:off x="8026773" y="10360400"/>
           <a:ext cx="175372" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -10878,14 +10878,14 @@
     <xdr:from>
       <xdr:col>104</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>68915</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>30815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>105</xdr:col>
       <xdr:colOff>93569</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>80120</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>42020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10900,7 +10900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9915525" y="10260665"/>
+          <a:off x="9915525" y="10308290"/>
           <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -11141,15 +11141,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>84</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>7846</xdr:rowOff>
+      <xdr:rowOff>64996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>13447</xdr:colOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11164,7 +11164,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8020050" y="13114246"/>
+          <a:off x="8001000" y="13171396"/>
           <a:ext cx="184897" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -11206,16 +11206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>16248</xdr:colOff>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>92448</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>25775</xdr:rowOff>
+      <xdr:rowOff>82925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>1120</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>36980</xdr:rowOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>77320</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>8405</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11230,7 +11230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8017248" y="13303625"/>
+          <a:off x="7998198" y="13360775"/>
           <a:ext cx="175372" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -11404,16 +11404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>14006</xdr:rowOff>
+      <xdr:rowOff>42581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>105</xdr:col>
-      <xdr:colOff>17369</xdr:colOff>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>45944</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>21289</xdr:rowOff>
+      <xdr:rowOff>49864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11428,7 +11428,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9839325" y="13291856"/>
+          <a:off x="9772650" y="13320431"/>
           <a:ext cx="179294" cy="178733"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -12395,15 +12395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>119</xdr:col>
-      <xdr:colOff>12885</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>560</xdr:rowOff>
+      <xdr:colOff>31935</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>57710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>121</xdr:col>
-      <xdr:colOff>1679</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>11764</xdr:rowOff>
+      <xdr:colOff>20729</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>68914</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12418,7 +12418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11347635" y="14478560"/>
+          <a:off x="11366685" y="14449985"/>
           <a:ext cx="179294" cy="182654"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -12659,15 +12659,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>84</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>7846</xdr:rowOff>
+      <xdr:rowOff>64996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>32497</xdr:colOff>
+      <xdr:colOff>13447</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12682,7 +12682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8039100" y="16114621"/>
+          <a:off x="8020050" y="16171771"/>
           <a:ext cx="184897" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -12725,15 +12725,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>84</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
+      <xdr:colOff>25773</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>25775</xdr:rowOff>
+      <xdr:rowOff>82925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>29695</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>36980</xdr:rowOff>
+      <xdr:colOff>10645</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>8405</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12748,7 +12748,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8045823" y="16304000"/>
+          <a:off x="8026773" y="16361150"/>
           <a:ext cx="175372" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -12925,13 +12925,13 @@
       <xdr:col>104</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>14006</xdr:rowOff>
+      <xdr:rowOff>42581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>105</xdr:col>
       <xdr:colOff>84044</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>21289</xdr:rowOff>
+      <xdr:rowOff>49864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12946,7 +12946,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9906000" y="16292231"/>
+          <a:off x="9906000" y="16320806"/>
           <a:ext cx="179294" cy="178733"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -13887,9 +13887,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:EM271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB7BEEC-9177-413D-8EC3-C1AD79EF4A9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9C4DB8-60B8-4DE1-B4BD-001DA01FDC35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -7644,14 +7644,14 @@
     <xdr:from>
       <xdr:col>119</xdr:col>
       <xdr:colOff>31374</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>72839</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>121</xdr:col>
       <xdr:colOff>14565</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>84043</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>64993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7666,7 +7666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11366124" y="5806889"/>
+          <a:off x="11366124" y="5702114"/>
           <a:ext cx="173691" cy="182654"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -8435,15 +8435,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>104</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:colOff>49866</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:rowOff>60511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>106</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
+      <xdr:colOff>38660</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>33616</xdr:rowOff>
+      <xdr:rowOff>71716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8458,8 +8458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10567147" y="7765676"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="9955866" y="7594786"/>
+          <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -8501,15 +8501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>104</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:colOff>38660</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>8404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>106</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:colOff>27454</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>19609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8524,8 +8524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10555941" y="7888941"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="9944660" y="7714129"/>
+          <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -9359,15 +9359,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>119</xdr:col>
-      <xdr:colOff>49866</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>21657</xdr:rowOff>
+      <xdr:colOff>11766</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>78807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>121</xdr:col>
-      <xdr:colOff>38660</xdr:colOff>
+      <xdr:colOff>560</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>32862</xdr:rowOff>
+      <xdr:rowOff>4287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9382,7 +9382,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11384616" y="8498907"/>
+          <a:off x="11346516" y="8470332"/>
           <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -10349,15 +10349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>119</xdr:col>
-      <xdr:colOff>84602</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>38659</xdr:rowOff>
+      <xdr:colOff>27452</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>76759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>121</xdr:col>
-      <xdr:colOff>73396</xdr:colOff>
+      <xdr:colOff>16246</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>49863</xdr:rowOff>
+      <xdr:rowOff>2238</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10372,7 +10372,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11419352" y="11516284"/>
+          <a:off x="11362202" y="11468659"/>
           <a:ext cx="179294" cy="182654"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -10876,14 +10876,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>30815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>105</xdr:col>
-      <xdr:colOff>74519</xdr:colOff>
+      <xdr:colOff>93569</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>42020</xdr:rowOff>
     </xdr:to>
@@ -10900,7 +10900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9896475" y="10308290"/>
+          <a:off x="9915525" y="10308290"/>
           <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -11602,16 +11602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>43703</xdr:colOff>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>24653</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>38660</xdr:rowOff>
+      <xdr:rowOff>19610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>105</xdr:col>
-      <xdr:colOff>54909</xdr:colOff>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11626,7 +11626,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9854453" y="13916585"/>
+          <a:off x="9930653" y="13897535"/>
           <a:ext cx="201706" cy="189940"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -12395,15 +12395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>119</xdr:col>
-      <xdr:colOff>70035</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>38660</xdr:rowOff>
+      <xdr:colOff>31935</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>57710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>121</xdr:col>
-      <xdr:colOff>58829</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>49864</xdr:rowOff>
+      <xdr:colOff>20729</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>68914</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12418,7 +12418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11404785" y="14516660"/>
+          <a:off x="11366685" y="14449985"/>
           <a:ext cx="179294" cy="182654"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -13887,9 +13887,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:EM271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D73545-0581-4D2E-BFDF-9BC5104536C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DAC41E-EC83-4CD5-ADF6-DF60AEA92DDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,6 +128,7 @@
     <definedName name="A2_35">取得!$CZ$79</definedName>
     <definedName name="A2_35_1">取得!$CZ$114</definedName>
     <definedName name="A2_35_2">取得!$CZ$149</definedName>
+    <definedName name="A2_35_3">取得!$CZ$184</definedName>
     <definedName name="A2_4">取得!$AB$55</definedName>
     <definedName name="A2_4_1">取得!$AB$90</definedName>
     <definedName name="A2_4_2">取得!$AB$125</definedName>
@@ -167,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="77">
   <si>
     <t>健　康　保　険
 厚生年金保険</t>
@@ -674,13 +675,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　5．その他　（　　　　　　　　　　　　　　　　　　　）</t>
-    <rPh sb="6" eb="7">
-      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7378,16 +7372,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:rowOff>62193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>114</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
+      <xdr:colOff>61072</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:rowOff>73398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7402,8 +7396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11396382" y="5356412"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="10734675" y="5281893"/>
+          <a:ext cx="184897" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -7444,16 +7438,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>62753</xdr:colOff>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>72278</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>40342</xdr:rowOff>
+      <xdr:rowOff>30817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>115</xdr:col>
-      <xdr:colOff>51547</xdr:colOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>61072</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>51547</xdr:rowOff>
+      <xdr:rowOff>42022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7468,8 +7462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11459135" y="5632077"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="10740278" y="5507692"/>
+          <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -9094,16 +9088,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>46504</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>115</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>35298</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>11766</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9118,8 +9112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11452411" y="8438030"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="10714504" y="8306361"/>
+          <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -9160,16 +9154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>36979</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>115</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>25773</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:rowOff>25773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9184,8 +9178,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11452411" y="8763000"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="10704979" y="8491818"/>
+          <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -9226,16 +9220,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>57710</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:rowOff>2241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>115</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>46504</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:rowOff>13446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9250,8 +9244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11463617" y="9076765"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="10725710" y="8736666"/>
+          <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -10084,15 +10078,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>94128</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>65553</xdr:colOff>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>115</xdr:col>
-      <xdr:colOff>82922</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>54347</xdr:colOff>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10108,8 +10102,74 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11490510" y="11598088"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="10733553" y="11306175"/>
+          <a:ext cx="179294" cy="182655"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>84603</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>27454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>73397</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>38658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="A2_11_2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10752603" y="11505079"/>
+          <a:ext cx="179294" cy="182654"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -10151,81 +10211,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>113</xdr:col>
-      <xdr:colOff>94128</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:colOff>14566</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>11765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>115</xdr:col>
-      <xdr:colOff>82922</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>67233</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="A2_11_2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11490510" y="11923058"/>
-          <a:ext cx="190500" cy="190499"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>71716</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>115</xdr:col>
-      <xdr:colOff>60510</xdr:colOff>
+      <xdr:colOff>3360</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>89645</xdr:rowOff>
+      <xdr:rowOff>22970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10240,8 +10234,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11468098" y="12214411"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="10777816" y="11746565"/>
+          <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -12130,16 +12124,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>60510</xdr:colOff>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>115</xdr:col>
-      <xdr:colOff>49304</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>68354</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>1680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12154,8 +12148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11456892" y="14735735"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="10747560" y="14297025"/>
+          <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -12196,16 +12190,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>94128</xdr:colOff>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>75078</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:rowOff>27454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>115</xdr:col>
-      <xdr:colOff>82922</xdr:colOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>63872</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>67233</xdr:rowOff>
+      <xdr:rowOff>38658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12220,8 +12214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11490510" y="15060705"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="10743078" y="14505454"/>
+          <a:ext cx="179294" cy="182654"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -12262,16 +12256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>71716</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>81241</xdr:colOff>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>115</xdr:col>
-      <xdr:colOff>60510</xdr:colOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>70035</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>89645</xdr:rowOff>
+      <xdr:rowOff>3920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12286,8 +12280,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11468098" y="15352058"/>
-          <a:ext cx="190500" cy="190499"/>
+          <a:off x="10749241" y="14727890"/>
+          <a:ext cx="179294" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -14044,7 +14038,7 @@
       <c r="D6" s="126"/>
       <c r="E6" s="126"/>
       <c r="F6" s="464" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="464"/>
       <c r="H6" s="464"/>
@@ -14062,7 +14056,7 @@
       <c r="S6" s="465"/>
       <c r="T6" s="465"/>
       <c r="U6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W6" s="465"/>
       <c r="X6" s="465"/>
@@ -14070,7 +14064,7 @@
       <c r="Z6" s="465"/>
       <c r="AA6" s="465"/>
       <c r="AB6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF6" s="126"/>
       <c r="AG6" s="126"/>
@@ -16405,7 +16399,7 @@
       <c r="BH40" s="402"/>
       <c r="BI40" s="402"/>
       <c r="BJ40" s="410" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BK40" s="410"/>
       <c r="BL40" s="410"/>
@@ -18244,7 +18238,7 @@
       <c r="CD55" s="36"/>
       <c r="CE55" s="35"/>
       <c r="CF55" s="356" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CG55" s="357"/>
       <c r="CH55" s="358"/>
@@ -18276,7 +18270,7 @@
       <c r="DF55" s="127"/>
       <c r="DG55" s="37"/>
       <c r="DH55" s="315" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DI55" s="316"/>
       <c r="DJ55" s="316"/>
@@ -19566,7 +19560,7 @@
       <c r="CD65" s="48"/>
       <c r="CE65" s="49"/>
       <c r="CF65" s="356" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CG65" s="357"/>
       <c r="CH65" s="358"/>
@@ -19610,7 +19604,7 @@
       <c r="DP65" s="213"/>
       <c r="DQ65" s="51"/>
       <c r="DR65" s="213" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="DS65" s="213"/>
       <c r="DT65" s="213"/>
@@ -20981,7 +20975,7 @@
       <c r="CX75" s="204"/>
       <c r="CY75" s="63"/>
       <c r="CZ75" s="170" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DA75" s="170"/>
       <c r="DB75" s="170"/>
@@ -21243,7 +21237,7 @@
       <c r="CD77" s="176"/>
       <c r="CE77" s="71"/>
       <c r="CF77" s="181" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CG77" s="170"/>
       <c r="CH77" s="170"/>
@@ -21516,7 +21510,7 @@
       <c r="CD79" s="176"/>
       <c r="CE79" s="71"/>
       <c r="CF79" s="181" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CG79" s="170"/>
       <c r="CH79" s="170"/>
@@ -21538,7 +21532,7 @@
       <c r="CX79" s="170"/>
       <c r="CY79" s="170"/>
       <c r="CZ79" s="170" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="DA79" s="170"/>
       <c r="DB79" s="170"/>
@@ -21941,7 +21935,7 @@
       <c r="CY82" s="152"/>
       <c r="CZ82" s="152"/>
       <c r="DA82" s="155" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="DB82" s="155"/>
       <c r="DC82" s="155"/>
@@ -22974,7 +22968,7 @@
       <c r="CD90" s="36"/>
       <c r="CE90" s="35"/>
       <c r="CF90" s="356" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CG90" s="357"/>
       <c r="CH90" s="358"/>
@@ -23006,7 +23000,7 @@
       <c r="DF90" s="127"/>
       <c r="DG90" s="37"/>
       <c r="DH90" s="315" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DI90" s="316"/>
       <c r="DJ90" s="316"/>
@@ -24296,7 +24290,7 @@
       <c r="CD100" s="48"/>
       <c r="CE100" s="49"/>
       <c r="CF100" s="356" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CG100" s="357"/>
       <c r="CH100" s="358"/>
@@ -24340,7 +24334,7 @@
       <c r="DP100" s="213"/>
       <c r="DQ100" s="51"/>
       <c r="DR100" s="213" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="DS100" s="213"/>
       <c r="DT100" s="213"/>
@@ -25711,7 +25705,7 @@
       <c r="CX110" s="204"/>
       <c r="CY110" s="63"/>
       <c r="CZ110" s="170" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DA110" s="170"/>
       <c r="DB110" s="170"/>
@@ -25973,7 +25967,7 @@
       <c r="CD112" s="176"/>
       <c r="CE112" s="71"/>
       <c r="CF112" s="181" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CG112" s="170"/>
       <c r="CH112" s="170"/>
@@ -26246,7 +26240,7 @@
       <c r="CD114" s="176"/>
       <c r="CE114" s="71"/>
       <c r="CF114" s="181" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CG114" s="170"/>
       <c r="CH114" s="170"/>
@@ -26268,7 +26262,7 @@
       <c r="CX114" s="170"/>
       <c r="CY114" s="170"/>
       <c r="CZ114" s="170" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="DA114" s="170"/>
       <c r="DB114" s="170"/>
@@ -27592,7 +27586,7 @@
       <c r="CD125" s="36"/>
       <c r="CE125" s="35"/>
       <c r="CF125" s="356" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CG125" s="357"/>
       <c r="CH125" s="358"/>
@@ -27624,7 +27618,7 @@
       <c r="DF125" s="127"/>
       <c r="DG125" s="37"/>
       <c r="DH125" s="361" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DI125" s="362"/>
       <c r="DJ125" s="362"/>
@@ -28914,7 +28908,7 @@
       <c r="CD135" s="48"/>
       <c r="CE135" s="49"/>
       <c r="CF135" s="356" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CG135" s="357"/>
       <c r="CH135" s="358"/>
@@ -28958,7 +28952,7 @@
       <c r="DP135" s="346"/>
       <c r="DQ135" s="125"/>
       <c r="DR135" s="346" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="DS135" s="346"/>
       <c r="DT135" s="346"/>
@@ -30329,7 +30323,7 @@
       <c r="CX145" s="204"/>
       <c r="CY145" s="63"/>
       <c r="CZ145" s="170" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DA145" s="170"/>
       <c r="DB145" s="170"/>
@@ -30591,7 +30585,7 @@
       <c r="CD147" s="176"/>
       <c r="CE147" s="71"/>
       <c r="CF147" s="181" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CG147" s="170"/>
       <c r="CH147" s="170"/>
@@ -30864,7 +30858,7 @@
       <c r="CD149" s="176"/>
       <c r="CE149" s="71"/>
       <c r="CF149" s="181" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CG149" s="170"/>
       <c r="CH149" s="170"/>
@@ -30886,7 +30880,7 @@
       <c r="CX149" s="170"/>
       <c r="CY149" s="170"/>
       <c r="CZ149" s="170" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="DA149" s="170"/>
       <c r="DB149" s="170"/>
@@ -31289,7 +31283,7 @@
       <c r="CY152" s="152"/>
       <c r="CZ152" s="152"/>
       <c r="DA152" s="155" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="DB152" s="155"/>
       <c r="DC152" s="155"/>
@@ -32210,7 +32204,7 @@
       <c r="CD160" s="36"/>
       <c r="CE160" s="35"/>
       <c r="CF160" s="277" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CG160" s="278"/>
       <c r="CH160" s="192"/>
@@ -32242,7 +32236,7 @@
       <c r="DF160" s="127"/>
       <c r="DG160" s="37"/>
       <c r="DH160" s="315" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DI160" s="316"/>
       <c r="DJ160" s="316"/>
@@ -33532,7 +33526,7 @@
       <c r="CD170" s="48"/>
       <c r="CE170" s="49"/>
       <c r="CF170" s="277" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CG170" s="278"/>
       <c r="CH170" s="192"/>
@@ -33576,7 +33570,7 @@
       <c r="DP170" s="213"/>
       <c r="DQ170" s="51"/>
       <c r="DR170" s="213" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="DS170" s="213"/>
       <c r="DT170" s="213"/>
@@ -34947,7 +34941,7 @@
       <c r="CX180" s="204"/>
       <c r="CY180" s="63"/>
       <c r="CZ180" s="170" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DA180" s="170"/>
       <c r="DB180" s="170"/>
@@ -35209,7 +35203,7 @@
       <c r="CD182" s="176"/>
       <c r="CE182" s="71"/>
       <c r="CF182" s="181" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CG182" s="170"/>
       <c r="CH182" s="170"/>
@@ -35482,7 +35476,7 @@
       <c r="CD184" s="176"/>
       <c r="CE184" s="71"/>
       <c r="CF184" s="181" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CG184" s="170"/>
       <c r="CH184" s="170"/>
@@ -35504,7 +35498,7 @@
       <c r="CX184" s="170"/>
       <c r="CY184" s="170"/>
       <c r="CZ184" s="170" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="DA184" s="170"/>
       <c r="DB184" s="170"/>
@@ -35907,7 +35901,7 @@
       <c r="CY187" s="152"/>
       <c r="CZ187" s="152"/>
       <c r="DA187" s="155" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="DB187" s="155"/>
       <c r="DC187" s="155"/>
@@ -36756,7 +36750,7 @@
     </row>
     <row r="197" spans="1:143" ht="24" customHeight="1">
       <c r="E197" s="135" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F197" s="135"/>
       <c r="G197" s="135"/>
@@ -36862,7 +36856,7 @@
     </row>
     <row r="198" spans="1:143" ht="24" customHeight="1">
       <c r="E198" s="135" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F198" s="135"/>
       <c r="G198" s="135"/>
@@ -36968,7 +36962,7 @@
     </row>
     <row r="199" spans="1:143" ht="24" customHeight="1">
       <c r="E199" s="135" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F199" s="135"/>
       <c r="G199" s="135"/>
@@ -37074,7 +37068,7 @@
     </row>
     <row r="200" spans="1:143" ht="24" customHeight="1">
       <c r="E200" s="135" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F200" s="135"/>
       <c r="G200" s="135"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F901A-BBCF-40EE-868C-CA691BA13E86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3681269-FFD9-4C9C-A06D-786B6281B7BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -3019,7 +3019,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>被</a:t>
+            <a:t>  被</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3035,7 +3035,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>保</a:t>
+            <a:t>  保</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3051,7 +3051,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>険</a:t>
+            <a:t>  険</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3067,7 +3067,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>者</a:t>
+            <a:t>  者</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3083,7 +3083,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> １</a:t>
+            <a:t>   １</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3168,7 +3168,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>提</a:t>
+            <a:t>  提</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3184,7 +3184,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>出</a:t>
+            <a:t>  出</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3200,7 +3200,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>者</a:t>
+            <a:t>  者</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3216,7 +3216,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>記</a:t>
+            <a:t>  記</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3232,7 +3232,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>入</a:t>
+            <a:t>  入</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3248,7 +3248,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>欄</a:t>
+            <a:t>  欄</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3530,7 +3530,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>被</a:t>
+            <a:t>  被</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3546,7 +3546,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>保</a:t>
+            <a:t>  保</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3562,7 +3562,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>険</a:t>
+            <a:t>  険</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3578,7 +3578,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>者</a:t>
+            <a:t>  者</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3594,7 +3594,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> ２</a:t>
+            <a:t>   ２</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3742,7 +3742,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>被</a:t>
+            <a:t>  被</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3758,7 +3758,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>保</a:t>
+            <a:t>  保</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3774,7 +3774,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>険</a:t>
+            <a:t>  険</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3790,7 +3790,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>者</a:t>
+            <a:t>  者</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3806,7 +3806,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>   </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
@@ -3962,7 +3962,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>被</a:t>
+            <a:t>  被</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3978,7 +3978,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>保</a:t>
+            <a:t>  保</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -3994,7 +3994,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>険</a:t>
+            <a:t>  険</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -4010,7 +4010,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>者</a:t>
+            <a:t>  者</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -4026,7 +4026,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> ４</a:t>
+            <a:t>   ４</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8EABC-C2B4-4BBE-AAC2-BD8E5E74E352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -158,7 +159,7 @@
     <definedName name="A2_9_6_3">取得!$CY$160</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">取得!$A$1:$DZ$201</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -915,7 +916,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-411]ggg"/>
     <numFmt numFmtId="165" formatCode="00000000;;"/>
@@ -924,7 +925,7 @@
     <numFmt numFmtId="168" formatCode="#,##0;[Red]\-#,##0;"/>
     <numFmt numFmtId="169" formatCode="0_ "/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1193,6 +1194,12 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1891,14 +1898,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2874,7 +2881,7 @@
         <xdr:cNvPr id="2" name="片側の 2 つの角を丸めた四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3030,7 @@
         <xdr:cNvPr id="3" name="片側の 2 つの角を丸めた四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3183,7 +3190,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3266,7 @@
         <xdr:cNvPr id="5" name="大かっこ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3332,7 @@
         <xdr:cNvPr id="7" name="大かっこ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +3398,7 @@
         <xdr:cNvPr id="8" name="片側の 2 つの角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,7 +3547,7 @@
         <xdr:cNvPr id="9" name="大かっこ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,7 +3613,7 @@
         <xdr:cNvPr id="10" name="片側の 2 つの角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,7 +3770,7 @@
         <xdr:cNvPr id="12" name="片側の 2 つの角を丸めた四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3912,7 +3919,7 @@
         <xdr:cNvPr id="13" name="大かっこ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3978,7 +3985,7 @@
         <xdr:cNvPr id="20" name="テキスト ボックス 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4042,7 +4049,7 @@
         <xdr:cNvPr id="21" name="テキスト ボックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4106,7 +4113,7 @@
         <xdr:cNvPr id="22" name="テキスト ボックス 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4170,7 +4177,7 @@
         <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4234,7 +4241,7 @@
         <xdr:cNvPr id="26" name="大かっこ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4300,7 +4307,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4371,7 @@
         <xdr:cNvPr id="28" name="テキスト ボックス 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4428,7 +4435,7 @@
         <xdr:cNvPr id="29" name="テキスト ボックス 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4492,7 +4499,7 @@
         <xdr:cNvPr id="30" name="テキスト ボックス 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4556,7 +4563,7 @@
         <xdr:cNvPr id="31" name="大かっこ 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4622,7 +4629,7 @@
         <xdr:cNvPr id="33" name="大かっこ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4688,7 +4695,7 @@
         <xdr:cNvPr id="34" name="テキスト ボックス 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4752,7 +4759,7 @@
         <xdr:cNvPr id="35" name="テキスト ボックス 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4816,7 +4823,7 @@
         <xdr:cNvPr id="36" name="テキスト ボックス 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4880,7 +4887,7 @@
         <xdr:cNvPr id="37" name="テキスト ボックス 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4944,7 +4951,7 @@
         <xdr:cNvPr id="40" name="大かっこ 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5010,7 +5017,7 @@
         <xdr:cNvPr id="41" name="テキスト ボックス 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5074,7 +5081,7 @@
         <xdr:cNvPr id="42" name="テキスト ボックス 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5138,7 +5145,7 @@
         <xdr:cNvPr id="43" name="テキスト ボックス 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5202,7 +5209,7 @@
         <xdr:cNvPr id="44" name="テキスト ボックス 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5266,7 +5273,7 @@
         <xdr:cNvPr id="45" name="図 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5310,7 +5317,7 @@
         <xdr:cNvPr id="46" name="テキスト ボックス 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5375,7 +5382,7 @@
         <xdr:cNvPr id="47" name="テキスト ボックス 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5440,7 +5447,7 @@
         <xdr:cNvPr id="48" name="テキスト ボックス 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5505,7 +5512,7 @@
         <xdr:cNvPr id="49" name="テキスト ボックス 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5570,7 +5577,7 @@
         <xdr:cNvPr id="50" name="テキスト ボックス 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5635,7 +5642,7 @@
         <xdr:cNvPr id="51" name="テキスト ボックス 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5700,7 +5707,7 @@
         <xdr:cNvPr id="52" name="テキスト ボックス 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5765,7 +5772,7 @@
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5830,7 +5837,7 @@
         <xdr:cNvPr id="54" name="テキスト ボックス 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5895,7 +5902,7 @@
         <xdr:cNvPr id="55" name="テキスト ボックス 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5960,7 +5967,7 @@
         <xdr:cNvPr id="56" name="テキスト ボックス 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6025,7 +6032,7 @@
         <xdr:cNvPr id="57" name="テキスト ボックス 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6090,7 +6097,7 @@
         <xdr:cNvPr id="58" name="テキスト ボックス 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6155,7 +6162,7 @@
         <xdr:cNvPr id="59" name="テキスト ボックス 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6220,7 +6227,7 @@
         <xdr:cNvPr id="60" name="テキスト ボックス 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6285,7 +6292,7 @@
         <xdr:cNvPr id="61" name="テキスト ボックス 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6350,7 +6357,7 @@
         <xdr:cNvPr id="62" name="テキスト ボックス 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6415,7 +6422,7 @@
         <xdr:cNvPr id="63" name="テキスト ボックス 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6480,7 +6487,7 @@
         <xdr:cNvPr id="64" name="テキスト ボックス 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6545,7 +6552,7 @@
         <xdr:cNvPr id="65" name="テキスト ボックス 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6610,7 +6617,7 @@
         <xdr:cNvPr id="66" name="テキスト ボックス 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6675,7 +6682,7 @@
         <xdr:cNvPr id="67" name="テキスト ボックス 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6740,7 +6747,7 @@
         <xdr:cNvPr id="68" name="テキスト ボックス 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6805,7 +6812,7 @@
         <xdr:cNvPr id="69" name="テキスト ボックス 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6870,7 +6877,7 @@
         <xdr:cNvPr id="70" name="A2_6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6942,7 +6949,7 @@
         <xdr:cNvPr id="72" name="A2_7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7014,7 +7021,7 @@
         <xdr:cNvPr id="73" name="A2_8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7086,7 +7093,7 @@
         <xdr:cNvPr id="74" name="A2_10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7152,7 +7159,7 @@
         <xdr:cNvPr id="75" name="A2_11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7218,7 +7225,7 @@
         <xdr:cNvPr id="76" name="A2_12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7284,7 +7291,7 @@
         <xdr:cNvPr id="78" name="A2_14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7350,7 +7357,7 @@
         <xdr:cNvPr id="79" name="A2_15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7416,7 +7423,7 @@
         <xdr:cNvPr id="80" name="A2_17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7488,7 +7495,7 @@
         <xdr:cNvPr id="81" name="A2_16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7560,7 +7567,7 @@
         <xdr:cNvPr id="82" name="A2_18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7632,7 +7639,7 @@
         <xdr:cNvPr id="83" name="A2_20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7704,7 +7711,7 @@
         <xdr:cNvPr id="84" name="A2_22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7770,7 +7777,7 @@
         <xdr:cNvPr id="85" name="A2_23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7836,7 +7843,7 @@
         <xdr:cNvPr id="86" name="A2_30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7902,7 +7909,7 @@
         <xdr:cNvPr id="87" name="A2_31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7968,7 +7975,7 @@
         <xdr:cNvPr id="88" name="A2_32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8034,7 +8041,7 @@
         <xdr:cNvPr id="89" name="A2_33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8100,7 +8107,7 @@
         <xdr:cNvPr id="90" name="A2_34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8166,7 +8173,7 @@
         <xdr:cNvPr id="91" name="A2_36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8232,7 +8239,7 @@
         <xdr:cNvPr id="92" name="A2_37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8298,7 +8305,7 @@
         <xdr:cNvPr id="94" name="A2_38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8364,7 +8371,7 @@
         <xdr:cNvPr id="95" name="A2_16_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8430,7 +8437,7 @@
         <xdr:cNvPr id="96" name="A2_17_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8496,7 +8503,7 @@
         <xdr:cNvPr id="97" name="A2_18_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8562,7 +8569,7 @@
         <xdr:cNvPr id="98" name="A2_6_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8628,7 +8635,7 @@
         <xdr:cNvPr id="100" name="A2_7_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8694,7 +8701,7 @@
         <xdr:cNvPr id="101" name="A2_8_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8760,7 +8767,7 @@
         <xdr:cNvPr id="102" name="A2_20_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8826,7 +8833,7 @@
         <xdr:cNvPr id="103" name="A2_10_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8892,7 +8899,7 @@
         <xdr:cNvPr id="104" name="A2_11_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8958,7 +8965,7 @@
         <xdr:cNvPr id="105" name="A2_12_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9024,7 +9031,7 @@
         <xdr:cNvPr id="106" name="A2_13_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9090,7 +9097,7 @@
         <xdr:cNvPr id="107" name="A2_14_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9156,7 +9163,7 @@
         <xdr:cNvPr id="108" name="A2_15_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9222,7 +9229,7 @@
         <xdr:cNvPr id="109" name="A2_22_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9288,7 +9295,7 @@
         <xdr:cNvPr id="110" name="A2_23_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9354,7 +9361,7 @@
         <xdr:cNvPr id="126" name="A2_16_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9420,7 +9427,7 @@
         <xdr:cNvPr id="127" name="A2_17_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9486,7 +9493,7 @@
         <xdr:cNvPr id="128" name="A2_18_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9552,7 +9559,7 @@
         <xdr:cNvPr id="129" name="A2_6_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9618,7 +9625,7 @@
         <xdr:cNvPr id="130" name="A2_7_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9684,7 +9691,7 @@
         <xdr:cNvPr id="131" name="A2_8_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9750,7 +9757,7 @@
         <xdr:cNvPr id="132" name="A2_20_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9816,7 +9823,7 @@
         <xdr:cNvPr id="133" name="A2_10_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9882,7 +9889,7 @@
         <xdr:cNvPr id="134" name="A2_11_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9948,7 +9955,7 @@
         <xdr:cNvPr id="135" name="A2_12_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10014,7 +10021,7 @@
         <xdr:cNvPr id="136" name="A2_13_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10080,7 +10087,7 @@
         <xdr:cNvPr id="137" name="A2_14_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10146,7 +10153,7 @@
         <xdr:cNvPr id="138" name="A2_15_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10212,7 +10219,7 @@
         <xdr:cNvPr id="139" name="A2_22_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10278,7 +10285,7 @@
         <xdr:cNvPr id="140" name="A2_23_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10344,7 +10351,7 @@
         <xdr:cNvPr id="141" name="A2_30_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10410,7 +10417,7 @@
         <xdr:cNvPr id="142" name="A2_31_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10476,7 +10483,7 @@
         <xdr:cNvPr id="143" name="A2_32_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10542,7 +10549,7 @@
         <xdr:cNvPr id="144" name="A2_33_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10608,7 +10615,7 @@
         <xdr:cNvPr id="145" name="A2_34_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10674,7 +10681,7 @@
         <xdr:cNvPr id="146" name="A2_36_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10740,7 +10747,7 @@
         <xdr:cNvPr id="147" name="A2_37_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10806,7 +10813,7 @@
         <xdr:cNvPr id="148" name="A2_38_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10872,7 +10879,7 @@
         <xdr:cNvPr id="149" name="A2_30_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10938,7 +10945,7 @@
         <xdr:cNvPr id="150" name="A2_31_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11004,7 +11011,7 @@
         <xdr:cNvPr id="151" name="A2_32_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11070,7 +11077,7 @@
         <xdr:cNvPr id="152" name="A2_33_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11136,7 +11143,7 @@
         <xdr:cNvPr id="153" name="A2_34_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11202,7 +11209,7 @@
         <xdr:cNvPr id="154" name="A2_36_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11268,7 +11275,7 @@
         <xdr:cNvPr id="155" name="A2_37_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11334,7 +11341,7 @@
         <xdr:cNvPr id="156" name="A2_38_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11400,7 +11407,7 @@
         <xdr:cNvPr id="157" name="A2_16_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11466,7 +11473,7 @@
         <xdr:cNvPr id="158" name="A2_17_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11532,7 +11539,7 @@
         <xdr:cNvPr id="159" name="A2_18_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11598,7 +11605,7 @@
         <xdr:cNvPr id="160" name="A2_6_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11664,7 +11671,7 @@
         <xdr:cNvPr id="161" name="A2_7_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11730,7 +11737,7 @@
         <xdr:cNvPr id="162" name="A2_8_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11796,7 +11803,7 @@
         <xdr:cNvPr id="163" name="A2_20_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11862,7 +11869,7 @@
         <xdr:cNvPr id="164" name="A2_10_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11928,7 +11935,7 @@
         <xdr:cNvPr id="165" name="A2_11_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11994,7 +12001,7 @@
         <xdr:cNvPr id="166" name="A2_12_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12060,7 +12067,7 @@
         <xdr:cNvPr id="167" name="A2_13_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12126,7 +12133,7 @@
         <xdr:cNvPr id="168" name="A2_14_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12192,7 +12199,7 @@
         <xdr:cNvPr id="169" name="A2_15_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12258,7 +12265,7 @@
         <xdr:cNvPr id="170" name="A2_22_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12324,7 +12331,7 @@
         <xdr:cNvPr id="171" name="A2_23_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12390,7 +12397,7 @@
         <xdr:cNvPr id="172" name="A2_30_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12456,7 +12463,7 @@
         <xdr:cNvPr id="173" name="A2_31_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12522,7 +12529,7 @@
         <xdr:cNvPr id="174" name="A2_32_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12588,7 +12595,7 @@
         <xdr:cNvPr id="175" name="A2_33_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12654,7 +12661,7 @@
         <xdr:cNvPr id="176" name="A2_34_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12720,7 +12727,7 @@
         <xdr:cNvPr id="177" name="A2_36_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12786,7 +12793,7 @@
         <xdr:cNvPr id="178" name="A2_37_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12852,7 +12859,7 @@
         <xdr:cNvPr id="179" name="A2_38_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12918,7 +12925,7 @@
         <xdr:cNvPr id="181" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12984,7 +12991,7 @@
         <xdr:cNvPr id="180" name="A2_13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13050,7 +13057,7 @@
         <xdr:cNvPr id="184" name="A2_39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28719A0-3500-4290-B7F5-BDA6A00FDE54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13114,7 +13121,7 @@
         <xdr:cNvPr id="185" name="A2_39_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378D95D4-4D78-43FA-8F4E-D822D37508C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13178,7 +13185,7 @@
         <xdr:cNvPr id="186" name="A2_39_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A563D19A-F64D-4D37-B28E-65221B273449}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13242,7 +13249,7 @@
         <xdr:cNvPr id="187" name="A2_39_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3486E0E-F3D1-4715-BCAB-E37AC1811D34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13306,7 +13313,7 @@
         <xdr:cNvPr id="182" name="A2_35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93A0AC0-4CAC-4533-8013-4481B8CE6362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13370,7 +13377,7 @@
         <xdr:cNvPr id="183" name="A2_35_1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F2D2B9-AB69-473E-9D00-D54BDF600CE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13434,7 +13441,7 @@
         <xdr:cNvPr id="188" name="A2_35_2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86A88F6-09DC-406F-ACBA-39591702B632}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13498,7 +13505,7 @@
         <xdr:cNvPr id="189" name="A2_35_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2BE959-CD9A-48DD-93B9-AF8354BD8B47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13562,7 +13569,7 @@
         <xdr:cNvPr id="71" name="図 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13620,7 +13627,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1083" name="AutoShape 59"/>
+        <xdr:cNvPr id="1083" name="AutoShape 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -13876,13 +13889,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:EM271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD145" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20:BO30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="136" width="1.375" style="1" customWidth="1"/>
     <col min="137" max="140" width="2.625" style="2" customWidth="1"/>
@@ -13891,17 +13906,17 @@
     <col min="153" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:143" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:143">
       <c r="EF1" s="2"/>
       <c r="EM1" s="1"/>
     </row>
-    <row r="2" spans="2:143" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:143">
       <c r="BN2" s="3"/>
       <c r="EK2" s="1"/>
       <c r="EL2" s="1"/>
       <c r="EM2" s="1"/>
     </row>
-    <row r="3" spans="2:143" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:143" ht="38.25" customHeight="1">
       <c r="AD3" s="135" t="s">
         <v>0</v>
       </c>
@@ -13965,7 +13980,7 @@
       <c r="EL3" s="1"/>
       <c r="EM3" s="1"/>
     </row>
-    <row r="4" spans="2:143" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:143" ht="24.75" customHeight="1">
       <c r="AD4" s="137" t="s">
         <v>2</v>
       </c>
@@ -14023,7 +14038,7 @@
       <c r="EL4" s="1"/>
       <c r="EM4" s="1"/>
     </row>
-    <row r="5" spans="2:143" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:143" ht="14.25" customHeight="1">
       <c r="EG5" s="139"/>
       <c r="EH5" s="139"/>
       <c r="EI5" s="139"/>
@@ -14032,7 +14047,7 @@
       <c r="EL5" s="1"/>
       <c r="EM5" s="1"/>
     </row>
-    <row r="6" spans="2:143" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:143" ht="16.149999999999999" customHeight="1">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -14076,12 +14091,12 @@
       <c r="EL6" s="1"/>
       <c r="EM6" s="1"/>
     </row>
-    <row r="7" spans="2:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:143" ht="6" customHeight="1">
       <c r="EK7" s="1"/>
       <c r="EL7" s="1"/>
       <c r="EM7" s="1"/>
     </row>
-    <row r="8" spans="2:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:143" ht="6" customHeight="1">
       <c r="G8" s="153" t="s">
         <v>77</v>
       </c>
@@ -14153,7 +14168,7 @@
       <c r="EL8" s="1"/>
       <c r="EM8" s="1"/>
     </row>
-    <row r="9" spans="2:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:143" ht="6" customHeight="1">
       <c r="G9" s="156"/>
       <c r="H9" s="157"/>
       <c r="I9" s="157"/>
@@ -14221,7 +14236,7 @@
       <c r="EL9" s="1"/>
       <c r="EM9" s="1"/>
     </row>
-    <row r="10" spans="2:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:143" ht="6" customHeight="1">
       <c r="G10" s="156"/>
       <c r="H10" s="157"/>
       <c r="I10" s="157"/>
@@ -14289,7 +14304,7 @@
       <c r="EL10" s="1"/>
       <c r="EM10" s="1"/>
     </row>
-    <row r="11" spans="2:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:143" ht="6" customHeight="1">
       <c r="G11" s="156"/>
       <c r="H11" s="157"/>
       <c r="I11" s="157"/>
@@ -14357,7 +14372,7 @@
       <c r="EL11" s="1"/>
       <c r="EM11" s="1"/>
     </row>
-    <row r="12" spans="2:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:143" ht="6" customHeight="1">
       <c r="G12" s="156"/>
       <c r="H12" s="157"/>
       <c r="I12" s="157"/>
@@ -14425,7 +14440,7 @@
       <c r="EL12" s="1"/>
       <c r="EM12" s="1"/>
     </row>
-    <row r="13" spans="2:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:143" ht="6" customHeight="1">
       <c r="G13" s="159"/>
       <c r="H13" s="160"/>
       <c r="I13" s="160"/>
@@ -14491,7 +14506,7 @@
       <c r="EL13" s="1"/>
       <c r="EM13" s="1"/>
     </row>
-    <row r="14" spans="2:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:143" ht="6" customHeight="1">
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -14559,7 +14574,7 @@
       <c r="EL14" s="1"/>
       <c r="EM14" s="1"/>
     </row>
-    <row r="15" spans="2:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:143" ht="6" customHeight="1">
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -14627,7 +14642,7 @@
       <c r="EL15" s="1"/>
       <c r="EM15" s="1"/>
     </row>
-    <row r="16" spans="2:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:143" ht="6" customHeight="1">
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -14693,7 +14708,7 @@
       <c r="EL16" s="1"/>
       <c r="EM16" s="1"/>
     </row>
-    <row r="17" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="7:143" ht="6" customHeight="1">
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -14767,7 +14782,7 @@
       <c r="EL17" s="1"/>
       <c r="EM17" s="1"/>
     </row>
-    <row r="18" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="7:143" ht="6" customHeight="1">
       <c r="G18" s="147" t="s">
         <v>6</v>
       </c>
@@ -14839,7 +14854,7 @@
       <c r="EL18" s="1"/>
       <c r="EM18" s="1"/>
     </row>
-    <row r="19" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:143" ht="6" customHeight="1">
       <c r="G19" s="147"/>
       <c r="H19" s="148"/>
       <c r="I19" s="148"/>
@@ -14903,7 +14918,7 @@
       <c r="EL19" s="1"/>
       <c r="EM19" s="1"/>
     </row>
-    <row r="20" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="7:143" ht="6" customHeight="1">
       <c r="G20" s="147"/>
       <c r="H20" s="148"/>
       <c r="I20" s="148"/>
@@ -14973,7 +14988,7 @@
       <c r="EL20" s="1"/>
       <c r="EM20" s="1"/>
     </row>
-    <row r="21" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="7:143" ht="6" customHeight="1">
       <c r="G21" s="147"/>
       <c r="H21" s="148"/>
       <c r="I21" s="148"/>
@@ -15043,7 +15058,7 @@
       <c r="EL21" s="1"/>
       <c r="EM21" s="1"/>
     </row>
-    <row r="22" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="7:143" ht="6" customHeight="1">
       <c r="G22" s="147"/>
       <c r="H22" s="148"/>
       <c r="I22" s="148"/>
@@ -15113,7 +15128,7 @@
       <c r="EL22" s="1"/>
       <c r="EM22" s="1"/>
     </row>
-    <row r="23" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="7:143" ht="6" customHeight="1">
       <c r="G23" s="147"/>
       <c r="H23" s="148"/>
       <c r="I23" s="148"/>
@@ -15183,7 +15198,7 @@
       <c r="EL23" s="1"/>
       <c r="EM23" s="1"/>
     </row>
-    <row r="24" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="7:143" ht="6" customHeight="1">
       <c r="G24" s="147"/>
       <c r="H24" s="148"/>
       <c r="I24" s="148"/>
@@ -15253,7 +15268,7 @@
       <c r="EL24" s="1"/>
       <c r="EM24" s="1"/>
     </row>
-    <row r="25" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="7:143" ht="6" customHeight="1">
       <c r="G25" s="147"/>
       <c r="H25" s="148"/>
       <c r="I25" s="148"/>
@@ -15323,7 +15338,7 @@
       <c r="EL25" s="1"/>
       <c r="EM25" s="1"/>
     </row>
-    <row r="26" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="7:143" ht="6" customHeight="1">
       <c r="G26" s="147"/>
       <c r="H26" s="148"/>
       <c r="I26" s="148"/>
@@ -15393,7 +15408,7 @@
       <c r="EL26" s="1"/>
       <c r="EM26" s="1"/>
     </row>
-    <row r="27" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="7:143" ht="6" customHeight="1">
       <c r="G27" s="147"/>
       <c r="H27" s="148"/>
       <c r="I27" s="148"/>
@@ -15463,7 +15478,7 @@
       <c r="EL27" s="1"/>
       <c r="EM27" s="1"/>
     </row>
-    <row r="28" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="7:143" ht="6" customHeight="1">
       <c r="G28" s="147"/>
       <c r="H28" s="148"/>
       <c r="I28" s="148"/>
@@ -15533,7 +15548,7 @@
       <c r="EL28" s="1"/>
       <c r="EM28" s="1"/>
     </row>
-    <row r="29" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="7:143" ht="6" customHeight="1">
       <c r="G29" s="147"/>
       <c r="H29" s="148"/>
       <c r="I29" s="148"/>
@@ -15603,7 +15618,7 @@
       <c r="EL29" s="1"/>
       <c r="EM29" s="1"/>
     </row>
-    <row r="30" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="7:143" ht="6" customHeight="1">
       <c r="G30" s="147"/>
       <c r="H30" s="148"/>
       <c r="I30" s="148"/>
@@ -15673,7 +15688,7 @@
       <c r="EL30" s="1"/>
       <c r="EM30" s="1"/>
     </row>
-    <row r="31" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="7:143" ht="6" customHeight="1">
       <c r="G31" s="147" t="s">
         <v>9</v>
       </c>
@@ -15745,7 +15760,7 @@
       <c r="EL31" s="1"/>
       <c r="EM31" s="1"/>
     </row>
-    <row r="32" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="7:143" ht="6" customHeight="1">
       <c r="G32" s="147"/>
       <c r="H32" s="148"/>
       <c r="I32" s="148"/>
@@ -15815,7 +15830,7 @@
       <c r="EL32" s="1"/>
       <c r="EM32" s="1"/>
     </row>
-    <row r="33" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="7:143" ht="6" customHeight="1">
       <c r="G33" s="147"/>
       <c r="H33" s="148"/>
       <c r="I33" s="148"/>
@@ -15885,7 +15900,7 @@
       <c r="EL33" s="1"/>
       <c r="EM33" s="1"/>
     </row>
-    <row r="34" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="7:143" ht="6" customHeight="1">
       <c r="G34" s="147"/>
       <c r="H34" s="148"/>
       <c r="I34" s="148"/>
@@ -15955,7 +15970,7 @@
       <c r="EL34" s="1"/>
       <c r="EM34" s="1"/>
     </row>
-    <row r="35" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="7:143" ht="6" customHeight="1">
       <c r="G35" s="147"/>
       <c r="H35" s="148"/>
       <c r="I35" s="148"/>
@@ -16046,7 +16061,7 @@
       <c r="EL35" s="1"/>
       <c r="EM35" s="1"/>
     </row>
-    <row r="36" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="7:143" ht="6" customHeight="1">
       <c r="G36" s="147"/>
       <c r="H36" s="148"/>
       <c r="I36" s="148"/>
@@ -16155,7 +16170,7 @@
       <c r="EL36" s="1"/>
       <c r="EM36" s="1"/>
     </row>
-    <row r="37" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="7:143" ht="6" customHeight="1">
       <c r="G37" s="147"/>
       <c r="H37" s="148"/>
       <c r="I37" s="148"/>
@@ -16262,7 +16277,7 @@
       <c r="EL37" s="1"/>
       <c r="EM37" s="1"/>
     </row>
-    <row r="38" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="7:143" ht="6" customHeight="1">
       <c r="G38" s="147"/>
       <c r="H38" s="148"/>
       <c r="I38" s="148"/>
@@ -16369,7 +16384,7 @@
       <c r="EL38" s="1"/>
       <c r="EM38" s="1"/>
     </row>
-    <row r="39" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="7:143" ht="6" customHeight="1">
       <c r="G39" s="147"/>
       <c r="H39" s="148"/>
       <c r="I39" s="148"/>
@@ -16476,7 +16491,7 @@
       <c r="EL39" s="1"/>
       <c r="EM39" s="1"/>
     </row>
-    <row r="40" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="7:143" ht="6" customHeight="1">
       <c r="G40" s="147" t="s">
         <v>11</v>
       </c>
@@ -16617,7 +16632,7 @@
       <c r="EL40" s="1"/>
       <c r="EM40" s="1"/>
     </row>
-    <row r="41" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="7:143" ht="6" customHeight="1">
       <c r="G41" s="147"/>
       <c r="H41" s="148"/>
       <c r="I41" s="148"/>
@@ -16752,7 +16767,7 @@
       <c r="EL41" s="1"/>
       <c r="EM41" s="1"/>
     </row>
-    <row r="42" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="7:143" ht="6" customHeight="1">
       <c r="G42" s="147"/>
       <c r="H42" s="148"/>
       <c r="I42" s="148"/>
@@ -16887,7 +16902,7 @@
       <c r="EL42" s="1"/>
       <c r="EM42" s="1"/>
     </row>
-    <row r="43" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="7:143" ht="6" customHeight="1">
       <c r="G43" s="147"/>
       <c r="H43" s="148"/>
       <c r="I43" s="148"/>
@@ -17022,7 +17037,7 @@
       <c r="EL43" s="1"/>
       <c r="EM43" s="1"/>
     </row>
-    <row r="44" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="7:143" ht="6" customHeight="1">
       <c r="G44" s="147"/>
       <c r="H44" s="148"/>
       <c r="I44" s="148"/>
@@ -17159,7 +17174,7 @@
       <c r="EL44" s="1"/>
       <c r="EM44" s="1"/>
     </row>
-    <row r="45" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="7:143" ht="6" customHeight="1">
       <c r="G45" s="147"/>
       <c r="H45" s="148"/>
       <c r="I45" s="148"/>
@@ -17294,7 +17309,7 @@
       <c r="EL45" s="1"/>
       <c r="EM45" s="1"/>
     </row>
-    <row r="46" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="7:143" ht="6" customHeight="1">
       <c r="G46" s="147"/>
       <c r="H46" s="148"/>
       <c r="I46" s="148"/>
@@ -17429,7 +17444,7 @@
       <c r="EL46" s="1"/>
       <c r="EM46" s="1"/>
     </row>
-    <row r="47" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="7:143" ht="6" customHeight="1">
       <c r="G47" s="147"/>
       <c r="H47" s="148"/>
       <c r="I47" s="148"/>
@@ -17564,7 +17579,7 @@
       <c r="EL47" s="1"/>
       <c r="EM47" s="1"/>
     </row>
-    <row r="48" spans="7:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="7:143" ht="6" customHeight="1">
       <c r="G48" s="147"/>
       <c r="H48" s="148"/>
       <c r="I48" s="148"/>
@@ -17699,7 +17714,7 @@
       <c r="EL48" s="1"/>
       <c r="EM48" s="1"/>
     </row>
-    <row r="49" spans="1:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:143" ht="6" customHeight="1">
       <c r="G49" s="194" t="s">
         <v>13</v>
       </c>
@@ -17840,7 +17855,7 @@
       <c r="EL49" s="1"/>
       <c r="EM49" s="1"/>
     </row>
-    <row r="50" spans="1:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:143" ht="6" customHeight="1">
       <c r="G50" s="194"/>
       <c r="H50" s="195"/>
       <c r="I50" s="195"/>
@@ -17975,7 +17990,7 @@
       <c r="EL50" s="1"/>
       <c r="EM50" s="1"/>
     </row>
-    <row r="51" spans="1:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:143" ht="6" customHeight="1">
       <c r="G51" s="194"/>
       <c r="H51" s="195"/>
       <c r="I51" s="195"/>
@@ -18110,7 +18125,7 @@
       <c r="EL51" s="1"/>
       <c r="EM51" s="1"/>
     </row>
-    <row r="52" spans="1:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:143" ht="6" customHeight="1">
       <c r="G52" s="197"/>
       <c r="H52" s="198"/>
       <c r="I52" s="198"/>
@@ -18245,7 +18260,7 @@
       <c r="EL52" s="1"/>
       <c r="EM52" s="1"/>
     </row>
-    <row r="53" spans="1:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:143" ht="6" customHeight="1">
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
@@ -18381,7 +18396,7 @@
       <c r="EL53" s="1"/>
       <c r="EM53" s="1"/>
     </row>
-    <row r="54" spans="1:143" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:143" ht="6" customHeight="1">
       <c r="EA54" s="2"/>
       <c r="EB54" s="2"/>
       <c r="EC54" s="2"/>
@@ -18393,7 +18408,7 @@
       <c r="EL54" s="1"/>
       <c r="EM54" s="1"/>
     </row>
-    <row r="55" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:143" ht="6.75" customHeight="1">
       <c r="A55" s="217"/>
       <c r="G55" s="218" t="s">
         <v>14</v>
@@ -18542,7 +18557,7 @@
       <c r="EL55" s="1"/>
       <c r="EM55" s="1"/>
     </row>
-    <row r="56" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:143" ht="6.75" customHeight="1">
       <c r="A56" s="217"/>
       <c r="G56" s="220"/>
       <c r="H56" s="221"/>
@@ -18679,7 +18694,7 @@
       <c r="EL56" s="1"/>
       <c r="EM56" s="1"/>
     </row>
-    <row r="57" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:143" ht="6.75" customHeight="1">
       <c r="A57" s="217"/>
       <c r="G57" s="321" t="s">
         <v>19</v>
@@ -18824,7 +18839,7 @@
       <c r="EL57" s="1"/>
       <c r="EM57" s="1"/>
     </row>
-    <row r="58" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:143" ht="6.75" customHeight="1">
       <c r="A58" s="217"/>
       <c r="G58" s="321"/>
       <c r="H58" s="322"/>
@@ -18961,7 +18976,7 @@
       <c r="EL58" s="1"/>
       <c r="EM58" s="1"/>
     </row>
-    <row r="59" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:143" ht="6.75" customHeight="1">
       <c r="A59" s="217"/>
       <c r="G59" s="321"/>
       <c r="H59" s="322"/>
@@ -19098,7 +19113,7 @@
       <c r="EL59" s="1"/>
       <c r="EM59" s="1"/>
     </row>
-    <row r="60" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:143" ht="6.75" customHeight="1">
       <c r="A60" s="217"/>
       <c r="G60" s="321"/>
       <c r="H60" s="322"/>
@@ -19235,7 +19250,7 @@
       <c r="EL60" s="1"/>
       <c r="EM60" s="1"/>
     </row>
-    <row r="61" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:143" ht="6.75" customHeight="1">
       <c r="A61" s="217"/>
       <c r="G61" s="321"/>
       <c r="H61" s="322"/>
@@ -19372,7 +19387,7 @@
       <c r="EL61" s="1"/>
       <c r="EM61" s="1"/>
     </row>
-    <row r="62" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:143" ht="6.75" customHeight="1">
       <c r="A62" s="217"/>
       <c r="G62" s="321"/>
       <c r="H62" s="322"/>
@@ -19509,7 +19524,7 @@
       <c r="EL62" s="1"/>
       <c r="EM62" s="1"/>
     </row>
-    <row r="63" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:143" ht="6.75" customHeight="1">
       <c r="A63" s="217"/>
       <c r="G63" s="321"/>
       <c r="H63" s="322"/>
@@ -19646,7 +19661,7 @@
       <c r="EL63" s="1"/>
       <c r="EM63" s="1"/>
     </row>
-    <row r="64" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:143" ht="6.75" customHeight="1">
       <c r="A64" s="217"/>
       <c r="G64" s="324"/>
       <c r="H64" s="325"/>
@@ -19783,7 +19798,7 @@
       <c r="EL64" s="1"/>
       <c r="EM64" s="1"/>
     </row>
-    <row r="65" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A65" s="217"/>
       <c r="G65" s="218" t="s">
         <v>23</v>
@@ -19936,7 +19951,7 @@
       <c r="EL65" s="67"/>
       <c r="EM65" s="67"/>
     </row>
-    <row r="66" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A66" s="217"/>
       <c r="G66" s="220"/>
       <c r="H66" s="221"/>
@@ -20073,7 +20088,7 @@
       <c r="EL66" s="67"/>
       <c r="EM66" s="67"/>
     </row>
-    <row r="67" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A67" s="217"/>
       <c r="G67" s="321" t="s">
         <v>29</v>
@@ -20218,7 +20233,7 @@
       <c r="EL67" s="67"/>
       <c r="EM67" s="67"/>
     </row>
-    <row r="68" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A68" s="217"/>
       <c r="G68" s="321"/>
       <c r="H68" s="322"/>
@@ -20357,7 +20372,7 @@
       <c r="EL68" s="67"/>
       <c r="EM68" s="67"/>
     </row>
-    <row r="69" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A69" s="217"/>
       <c r="G69" s="321"/>
       <c r="H69" s="322"/>
@@ -20494,7 +20509,7 @@
       <c r="EL69" s="67"/>
       <c r="EM69" s="67"/>
     </row>
-    <row r="70" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A70" s="217"/>
       <c r="G70" s="321"/>
       <c r="H70" s="322"/>
@@ -20633,7 +20648,7 @@
       <c r="EL70" s="67"/>
       <c r="EM70" s="67"/>
     </row>
-    <row r="71" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A71" s="217"/>
       <c r="G71" s="321"/>
       <c r="H71" s="322"/>
@@ -20772,7 +20787,7 @@
       <c r="EL71" s="67"/>
       <c r="EM71" s="67"/>
     </row>
-    <row r="72" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A72" s="217"/>
       <c r="G72" s="321"/>
       <c r="H72" s="322"/>
@@ -20909,7 +20924,7 @@
       <c r="EL72" s="67"/>
       <c r="EM72" s="67"/>
     </row>
-    <row r="73" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:143" ht="6.75" customHeight="1">
       <c r="A73" s="217"/>
       <c r="G73" s="324"/>
       <c r="H73" s="325"/>
@@ -21039,7 +21054,7 @@
       <c r="EB73" s="66"/>
       <c r="EC73" s="66"/>
     </row>
-    <row r="74" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A74" s="217"/>
       <c r="G74" s="218" t="s">
         <v>36</v>
@@ -21186,7 +21201,7 @@
       <c r="EL74" s="78"/>
       <c r="EM74" s="78"/>
     </row>
-    <row r="75" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A75" s="217"/>
       <c r="G75" s="220"/>
       <c r="H75" s="221"/>
@@ -21325,7 +21340,7 @@
       <c r="EL75" s="78"/>
       <c r="EM75" s="78"/>
     </row>
-    <row r="76" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A76" s="217"/>
       <c r="G76" s="83"/>
       <c r="H76" s="322" t="s">
@@ -21468,7 +21483,7 @@
       <c r="EL76" s="78"/>
       <c r="EM76" s="78"/>
     </row>
-    <row r="77" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A77" s="217"/>
       <c r="G77" s="83"/>
       <c r="H77" s="322"/>
@@ -21609,7 +21624,7 @@
       <c r="EL77" s="78"/>
       <c r="EM77" s="78"/>
     </row>
-    <row r="78" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:143" ht="6.75" customHeight="1">
       <c r="A78" s="217"/>
       <c r="G78" s="83"/>
       <c r="H78" s="322"/>
@@ -21741,7 +21756,7 @@
       <c r="EB78" s="80"/>
       <c r="EC78" s="80"/>
     </row>
-    <row r="79" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:143" ht="6.75" customHeight="1">
       <c r="A79" s="217"/>
       <c r="G79" s="83"/>
       <c r="H79" s="322"/>
@@ -21875,7 +21890,7 @@
       <c r="EB79" s="80"/>
       <c r="EC79" s="80"/>
     </row>
-    <row r="80" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:143" ht="6.75" customHeight="1">
       <c r="A80" s="217"/>
       <c r="G80" s="83"/>
       <c r="H80" s="322"/>
@@ -22009,7 +22024,7 @@
       <c r="EB80" s="80"/>
       <c r="EC80" s="80"/>
     </row>
-    <row r="81" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:143" ht="6.75" customHeight="1">
       <c r="A81" s="217"/>
       <c r="G81" s="91"/>
       <c r="H81" s="325"/>
@@ -22146,7 +22161,7 @@
       <c r="EL81" s="1"/>
       <c r="EM81" s="1"/>
     </row>
-    <row r="82" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:143" ht="6.75" customHeight="1">
       <c r="A82" s="217"/>
       <c r="G82" s="218" t="s">
         <v>46</v>
@@ -22291,7 +22306,7 @@
       <c r="EL82" s="1"/>
       <c r="EM82" s="1"/>
     </row>
-    <row r="83" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:143" ht="6.75" customHeight="1">
       <c r="A83" s="217"/>
       <c r="G83" s="220"/>
       <c r="H83" s="221"/>
@@ -22428,7 +22443,7 @@
       <c r="EL83" s="1"/>
       <c r="EM83" s="1"/>
     </row>
-    <row r="84" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:143" ht="6.75" customHeight="1">
       <c r="A84" s="217"/>
       <c r="G84" s="321" t="s">
         <v>49</v>
@@ -22571,7 +22586,7 @@
       <c r="EL84" s="1"/>
       <c r="EM84" s="1"/>
     </row>
-    <row r="85" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:143" ht="6.75" customHeight="1">
       <c r="A85" s="217"/>
       <c r="G85" s="321"/>
       <c r="H85" s="322"/>
@@ -22708,7 +22723,7 @@
       <c r="EL85" s="1"/>
       <c r="EM85" s="1"/>
     </row>
-    <row r="86" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:143" ht="6.75" customHeight="1">
       <c r="A86" s="217"/>
       <c r="G86" s="321"/>
       <c r="H86" s="322"/>
@@ -22845,7 +22860,7 @@
       <c r="EL86" s="1"/>
       <c r="EM86" s="1"/>
     </row>
-    <row r="87" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:143" ht="6.75" customHeight="1">
       <c r="A87" s="217"/>
       <c r="G87" s="321"/>
       <c r="H87" s="322"/>
@@ -22982,7 +22997,7 @@
       <c r="EL87" s="1"/>
       <c r="EM87" s="1"/>
     </row>
-    <row r="88" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:143" ht="6.75" customHeight="1">
       <c r="A88" s="217"/>
       <c r="G88" s="324"/>
       <c r="H88" s="325"/>
@@ -23119,7 +23134,7 @@
       <c r="EL88" s="1"/>
       <c r="EM88" s="1"/>
     </row>
-    <row r="89" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:143" ht="6.75" customHeight="1">
       <c r="A89" s="217"/>
       <c r="G89" s="104"/>
       <c r="H89" s="104"/>
@@ -23256,7 +23271,7 @@
       <c r="EL89" s="1"/>
       <c r="EM89" s="1"/>
     </row>
-    <row r="90" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:143" ht="6.75" customHeight="1">
       <c r="A90" s="128"/>
       <c r="G90" s="218" t="s">
         <v>14</v>
@@ -23405,7 +23420,7 @@
       <c r="EL90" s="1"/>
       <c r="EM90" s="1"/>
     </row>
-    <row r="91" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:143" ht="6.75" customHeight="1">
       <c r="A91" s="128"/>
       <c r="G91" s="220"/>
       <c r="H91" s="221"/>
@@ -23542,7 +23557,7 @@
       <c r="EL91" s="1"/>
       <c r="EM91" s="1"/>
     </row>
-    <row r="92" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:143" ht="6.75" customHeight="1">
       <c r="A92" s="128"/>
       <c r="G92" s="321" t="s">
         <v>19</v>
@@ -23687,7 +23702,7 @@
       <c r="EL92" s="1"/>
       <c r="EM92" s="1"/>
     </row>
-    <row r="93" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:143" ht="6.75" customHeight="1">
       <c r="A93" s="128"/>
       <c r="G93" s="321"/>
       <c r="H93" s="322"/>
@@ -23824,7 +23839,7 @@
       <c r="EL93" s="1"/>
       <c r="EM93" s="1"/>
     </row>
-    <row r="94" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:143" ht="6.75" customHeight="1">
       <c r="A94" s="128"/>
       <c r="G94" s="321"/>
       <c r="H94" s="322"/>
@@ -23961,7 +23976,7 @@
       <c r="EL94" s="1"/>
       <c r="EM94" s="1"/>
     </row>
-    <row r="95" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:143" ht="6.75" customHeight="1">
       <c r="A95" s="128"/>
       <c r="G95" s="321"/>
       <c r="H95" s="322"/>
@@ -24098,7 +24113,7 @@
       <c r="EL95" s="1"/>
       <c r="EM95" s="1"/>
     </row>
-    <row r="96" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:143" ht="6.75" customHeight="1">
       <c r="A96" s="128"/>
       <c r="G96" s="321"/>
       <c r="H96" s="322"/>
@@ -24235,7 +24250,7 @@
       <c r="EL96" s="1"/>
       <c r="EM96" s="1"/>
     </row>
-    <row r="97" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:143" ht="6.75" customHeight="1">
       <c r="A97" s="128"/>
       <c r="G97" s="321"/>
       <c r="H97" s="322"/>
@@ -24365,7 +24380,7 @@
       <c r="EB97" s="52"/>
       <c r="EC97" s="52"/>
     </row>
-    <row r="98" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:143" ht="6.75" customHeight="1">
       <c r="A98" s="128"/>
       <c r="G98" s="321"/>
       <c r="H98" s="322"/>
@@ -24495,7 +24510,7 @@
       <c r="EB98" s="52"/>
       <c r="EC98" s="52"/>
     </row>
-    <row r="99" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:143" ht="6.75" customHeight="1">
       <c r="A99" s="128"/>
       <c r="G99" s="324"/>
       <c r="H99" s="325"/>
@@ -24625,7 +24640,7 @@
       <c r="EB99" s="52"/>
       <c r="EC99" s="52"/>
     </row>
-    <row r="100" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A100" s="128"/>
       <c r="G100" s="218" t="s">
         <v>23</v>
@@ -24778,7 +24793,7 @@
       <c r="EL100" s="67"/>
       <c r="EM100" s="67"/>
     </row>
-    <row r="101" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A101" s="128"/>
       <c r="G101" s="220"/>
       <c r="H101" s="221"/>
@@ -24915,7 +24930,7 @@
       <c r="EL101" s="67"/>
       <c r="EM101" s="67"/>
     </row>
-    <row r="102" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A102" s="128"/>
       <c r="G102" s="321" t="s">
         <v>29</v>
@@ -25060,7 +25075,7 @@
       <c r="EL102" s="67"/>
       <c r="EM102" s="67"/>
     </row>
-    <row r="103" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A103" s="128"/>
       <c r="G103" s="321"/>
       <c r="H103" s="322"/>
@@ -25199,7 +25214,7 @@
       <c r="EL103" s="67"/>
       <c r="EM103" s="67"/>
     </row>
-    <row r="104" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A104" s="128"/>
       <c r="G104" s="321"/>
       <c r="H104" s="322"/>
@@ -25336,7 +25351,7 @@
       <c r="EL104" s="67"/>
       <c r="EM104" s="67"/>
     </row>
-    <row r="105" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A105" s="128"/>
       <c r="G105" s="321"/>
       <c r="H105" s="322"/>
@@ -25475,7 +25490,7 @@
       <c r="EL105" s="67"/>
       <c r="EM105" s="67"/>
     </row>
-    <row r="106" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A106" s="128"/>
       <c r="G106" s="321"/>
       <c r="H106" s="322"/>
@@ -25614,7 +25629,7 @@
       <c r="EL106" s="67"/>
       <c r="EM106" s="67"/>
     </row>
-    <row r="107" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A107" s="128"/>
       <c r="G107" s="321"/>
       <c r="H107" s="322"/>
@@ -25751,7 +25766,7 @@
       <c r="EL107" s="67"/>
       <c r="EM107" s="67"/>
     </row>
-    <row r="108" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:143" ht="6.75" customHeight="1">
       <c r="A108" s="128"/>
       <c r="G108" s="324"/>
       <c r="H108" s="325"/>
@@ -25881,7 +25896,7 @@
       <c r="EB108" s="66"/>
       <c r="EC108" s="66"/>
     </row>
-    <row r="109" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A109" s="128"/>
       <c r="G109" s="218" t="s">
         <v>36</v>
@@ -26028,7 +26043,7 @@
       <c r="EL109" s="78"/>
       <c r="EM109" s="78"/>
     </row>
-    <row r="110" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A110" s="128"/>
       <c r="G110" s="220"/>
       <c r="H110" s="221"/>
@@ -26167,7 +26182,7 @@
       <c r="EL110" s="78"/>
       <c r="EM110" s="78"/>
     </row>
-    <row r="111" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A111" s="128"/>
       <c r="G111" s="83"/>
       <c r="H111" s="322" t="s">
@@ -26310,7 +26325,7 @@
       <c r="EL111" s="78"/>
       <c r="EM111" s="78"/>
     </row>
-    <row r="112" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A112" s="128"/>
       <c r="G112" s="83"/>
       <c r="H112" s="322"/>
@@ -26451,7 +26466,7 @@
       <c r="EL112" s="78"/>
       <c r="EM112" s="78"/>
     </row>
-    <row r="113" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:143" ht="6.75" customHeight="1">
       <c r="A113" s="128"/>
       <c r="G113" s="83"/>
       <c r="H113" s="322"/>
@@ -26590,7 +26605,7 @@
       <c r="EL113" s="1"/>
       <c r="EM113" s="1"/>
     </row>
-    <row r="114" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:143" ht="6.75" customHeight="1">
       <c r="A114" s="128"/>
       <c r="G114" s="83"/>
       <c r="H114" s="322"/>
@@ -26731,7 +26746,7 @@
       <c r="EL114" s="1"/>
       <c r="EM114" s="1"/>
     </row>
-    <row r="115" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:143" ht="6.75" customHeight="1">
       <c r="A115" s="128"/>
       <c r="G115" s="83"/>
       <c r="H115" s="322"/>
@@ -26872,7 +26887,7 @@
       <c r="EL115" s="1"/>
       <c r="EM115" s="1"/>
     </row>
-    <row r="116" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:143" ht="6.75" customHeight="1">
       <c r="A116" s="128"/>
       <c r="G116" s="91"/>
       <c r="H116" s="325"/>
@@ -27009,7 +27024,7 @@
       <c r="EL116" s="1"/>
       <c r="EM116" s="1"/>
     </row>
-    <row r="117" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:143" ht="6.75" customHeight="1">
       <c r="A117" s="128"/>
       <c r="G117" s="218" t="s">
         <v>46</v>
@@ -27154,7 +27169,7 @@
       <c r="EL117" s="1"/>
       <c r="EM117" s="1"/>
     </row>
-    <row r="118" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:143" ht="6.75" customHeight="1">
       <c r="A118" s="128"/>
       <c r="G118" s="220"/>
       <c r="H118" s="221"/>
@@ -27291,7 +27306,7 @@
       <c r="EL118" s="1"/>
       <c r="EM118" s="1"/>
     </row>
-    <row r="119" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:143" ht="6.75" customHeight="1">
       <c r="A119" s="128"/>
       <c r="G119" s="321" t="s">
         <v>49</v>
@@ -27434,7 +27449,7 @@
       <c r="EL119" s="1"/>
       <c r="EM119" s="1"/>
     </row>
-    <row r="120" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:143" ht="6.75" customHeight="1">
       <c r="A120" s="128"/>
       <c r="G120" s="321"/>
       <c r="H120" s="322"/>
@@ -27571,7 +27586,7 @@
       <c r="EL120" s="1"/>
       <c r="EM120" s="1"/>
     </row>
-    <row r="121" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:143" ht="6.75" customHeight="1">
       <c r="A121" s="128"/>
       <c r="G121" s="321"/>
       <c r="H121" s="322"/>
@@ -27708,7 +27723,7 @@
       <c r="EL121" s="1"/>
       <c r="EM121" s="1"/>
     </row>
-    <row r="122" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:143" ht="6.75" customHeight="1">
       <c r="A122" s="128"/>
       <c r="G122" s="321"/>
       <c r="H122" s="322"/>
@@ -27845,7 +27860,7 @@
       <c r="EL122" s="1"/>
       <c r="EM122" s="1"/>
     </row>
-    <row r="123" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:143" ht="6.75" customHeight="1">
       <c r="A123" s="128"/>
       <c r="G123" s="324"/>
       <c r="H123" s="325"/>
@@ -27982,7 +27997,7 @@
       <c r="EL123" s="1"/>
       <c r="EM123" s="1"/>
     </row>
-    <row r="124" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:143" ht="6.75" customHeight="1">
       <c r="DN124" s="114"/>
       <c r="DO124" s="114"/>
       <c r="DP124" s="114"/>
@@ -28007,7 +28022,7 @@
       <c r="EL124" s="1"/>
       <c r="EM124" s="1"/>
     </row>
-    <row r="125" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:143" ht="6.75" customHeight="1">
       <c r="A125" s="128"/>
       <c r="G125" s="218" t="s">
         <v>14</v>
@@ -28156,7 +28171,7 @@
       <c r="EL125" s="1"/>
       <c r="EM125" s="1"/>
     </row>
-    <row r="126" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:143" ht="6.75" customHeight="1">
       <c r="A126" s="128"/>
       <c r="G126" s="220"/>
       <c r="H126" s="221"/>
@@ -28293,7 +28308,7 @@
       <c r="EL126" s="1"/>
       <c r="EM126" s="1"/>
     </row>
-    <row r="127" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:143" ht="6.75" customHeight="1">
       <c r="A127" s="128"/>
       <c r="G127" s="321" t="s">
         <v>19</v>
@@ -28438,7 +28453,7 @@
       <c r="EL127" s="1"/>
       <c r="EM127" s="1"/>
     </row>
-    <row r="128" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:143" ht="6.75" customHeight="1">
       <c r="A128" s="128"/>
       <c r="G128" s="321"/>
       <c r="H128" s="322"/>
@@ -28575,7 +28590,7 @@
       <c r="EL128" s="1"/>
       <c r="EM128" s="1"/>
     </row>
-    <row r="129" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:143" ht="6.75" customHeight="1">
       <c r="A129" s="128"/>
       <c r="G129" s="321"/>
       <c r="H129" s="322"/>
@@ -28705,7 +28720,7 @@
       <c r="EB129" s="52"/>
       <c r="EC129" s="52"/>
     </row>
-    <row r="130" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:143" ht="6.75" customHeight="1">
       <c r="A130" s="128"/>
       <c r="G130" s="321"/>
       <c r="H130" s="322"/>
@@ -28835,7 +28850,7 @@
       <c r="EB130" s="52"/>
       <c r="EC130" s="52"/>
     </row>
-    <row r="131" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:143" ht="6.75" customHeight="1">
       <c r="A131" s="128"/>
       <c r="G131" s="321"/>
       <c r="H131" s="322"/>
@@ -28965,7 +28980,7 @@
       <c r="EB131" s="52"/>
       <c r="EC131" s="52"/>
     </row>
-    <row r="132" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:143" ht="6.75" customHeight="1">
       <c r="A132" s="128"/>
       <c r="G132" s="321"/>
       <c r="H132" s="322"/>
@@ -29095,7 +29110,7 @@
       <c r="EB132" s="52"/>
       <c r="EC132" s="52"/>
     </row>
-    <row r="133" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:143" ht="6.75" customHeight="1">
       <c r="A133" s="128"/>
       <c r="G133" s="321"/>
       <c r="H133" s="322"/>
@@ -29225,7 +29240,7 @@
       <c r="EB133" s="52"/>
       <c r="EC133" s="52"/>
     </row>
-    <row r="134" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:143" ht="6.75" customHeight="1">
       <c r="A134" s="128"/>
       <c r="G134" s="324"/>
       <c r="H134" s="325"/>
@@ -29355,7 +29370,7 @@
       <c r="EB134" s="52"/>
       <c r="EC134" s="52"/>
     </row>
-    <row r="135" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A135" s="128"/>
       <c r="G135" s="218" t="s">
         <v>23</v>
@@ -29508,7 +29523,7 @@
       <c r="EL135" s="67"/>
       <c r="EM135" s="67"/>
     </row>
-    <row r="136" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A136" s="128"/>
       <c r="G136" s="220"/>
       <c r="H136" s="221"/>
@@ -29645,7 +29660,7 @@
       <c r="EL136" s="67"/>
       <c r="EM136" s="67"/>
     </row>
-    <row r="137" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A137" s="128"/>
       <c r="G137" s="321" t="s">
         <v>29</v>
@@ -29790,7 +29805,7 @@
       <c r="EL137" s="67"/>
       <c r="EM137" s="67"/>
     </row>
-    <row r="138" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A138" s="128"/>
       <c r="G138" s="321"/>
       <c r="H138" s="322"/>
@@ -29929,7 +29944,7 @@
       <c r="EL138" s="67"/>
       <c r="EM138" s="67"/>
     </row>
-    <row r="139" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A139" s="128"/>
       <c r="G139" s="321"/>
       <c r="H139" s="322"/>
@@ -30066,7 +30081,7 @@
       <c r="EL139" s="67"/>
       <c r="EM139" s="67"/>
     </row>
-    <row r="140" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A140" s="128"/>
       <c r="G140" s="321"/>
       <c r="H140" s="322"/>
@@ -30205,7 +30220,7 @@
       <c r="EL140" s="67"/>
       <c r="EM140" s="67"/>
     </row>
-    <row r="141" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A141" s="128"/>
       <c r="G141" s="321"/>
       <c r="H141" s="322"/>
@@ -30344,7 +30359,7 @@
       <c r="EL141" s="67"/>
       <c r="EM141" s="67"/>
     </row>
-    <row r="142" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A142" s="128"/>
       <c r="G142" s="321"/>
       <c r="H142" s="322"/>
@@ -30481,7 +30496,7 @@
       <c r="EL142" s="67"/>
       <c r="EM142" s="67"/>
     </row>
-    <row r="143" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:143" ht="6.75" customHeight="1">
       <c r="A143" s="128"/>
       <c r="G143" s="324"/>
       <c r="H143" s="325"/>
@@ -30611,7 +30626,7 @@
       <c r="EB143" s="66"/>
       <c r="EC143" s="66"/>
     </row>
-    <row r="144" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A144" s="128"/>
       <c r="G144" s="218" t="s">
         <v>36</v>
@@ -30758,7 +30773,7 @@
       <c r="EL144" s="78"/>
       <c r="EM144" s="78"/>
     </row>
-    <row r="145" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A145" s="128"/>
       <c r="G145" s="220"/>
       <c r="H145" s="221"/>
@@ -30897,7 +30912,7 @@
       <c r="EL145" s="78"/>
       <c r="EM145" s="78"/>
     </row>
-    <row r="146" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A146" s="128"/>
       <c r="G146" s="83"/>
       <c r="H146" s="322" t="s">
@@ -31040,7 +31055,7 @@
       <c r="EL146" s="78"/>
       <c r="EM146" s="78"/>
     </row>
-    <row r="147" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A147" s="128"/>
       <c r="G147" s="83"/>
       <c r="H147" s="322"/>
@@ -31181,7 +31196,7 @@
       <c r="EL147" s="78"/>
       <c r="EM147" s="78"/>
     </row>
-    <row r="148" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:143" ht="6.75" customHeight="1">
       <c r="A148" s="128"/>
       <c r="G148" s="83"/>
       <c r="H148" s="322"/>
@@ -31313,7 +31328,7 @@
       <c r="EB148" s="80"/>
       <c r="EC148" s="80"/>
     </row>
-    <row r="149" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:143" ht="6.75" customHeight="1">
       <c r="A149" s="128"/>
       <c r="G149" s="83"/>
       <c r="H149" s="322"/>
@@ -31447,7 +31462,7 @@
       <c r="EB149" s="80"/>
       <c r="EC149" s="80"/>
     </row>
-    <row r="150" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:143" ht="6.75" customHeight="1">
       <c r="A150" s="128"/>
       <c r="G150" s="83"/>
       <c r="H150" s="322"/>
@@ -31581,7 +31596,7 @@
       <c r="EB150" s="80"/>
       <c r="EC150" s="80"/>
     </row>
-    <row r="151" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:143" ht="6.75" customHeight="1">
       <c r="A151" s="128"/>
       <c r="G151" s="91"/>
       <c r="H151" s="325"/>
@@ -31711,7 +31726,7 @@
       <c r="EB151" s="80"/>
       <c r="EC151" s="80"/>
     </row>
-    <row r="152" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:143" ht="6.75" customHeight="1">
       <c r="A152" s="128"/>
       <c r="G152" s="218" t="s">
         <v>46</v>
@@ -31849,7 +31864,7 @@
       <c r="EB152" s="100"/>
       <c r="EC152" s="100"/>
     </row>
-    <row r="153" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:143" ht="6.75" customHeight="1">
       <c r="A153" s="128"/>
       <c r="G153" s="220"/>
       <c r="H153" s="221"/>
@@ -31979,7 +31994,7 @@
       <c r="EB153" s="100"/>
       <c r="EC153" s="100"/>
     </row>
-    <row r="154" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:143" ht="6.75" customHeight="1">
       <c r="A154" s="128"/>
       <c r="G154" s="321" t="s">
         <v>49</v>
@@ -32115,7 +32130,7 @@
       <c r="EB154" s="100"/>
       <c r="EC154" s="100"/>
     </row>
-    <row r="155" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:143" ht="6.75" customHeight="1">
       <c r="A155" s="128"/>
       <c r="G155" s="321"/>
       <c r="H155" s="322"/>
@@ -32245,7 +32260,7 @@
       <c r="EB155" s="100"/>
       <c r="EC155" s="100"/>
     </row>
-    <row r="156" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:143" ht="6.75" customHeight="1">
       <c r="A156" s="128"/>
       <c r="G156" s="321"/>
       <c r="H156" s="322"/>
@@ -32375,7 +32390,7 @@
       <c r="EB156" s="100"/>
       <c r="EC156" s="100"/>
     </row>
-    <row r="157" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:143" ht="6.75" customHeight="1">
       <c r="A157" s="128"/>
       <c r="G157" s="321"/>
       <c r="H157" s="322"/>
@@ -32505,7 +32520,7 @@
       <c r="EB157" s="100"/>
       <c r="EC157" s="100"/>
     </row>
-    <row r="158" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:143" ht="6.75" customHeight="1">
       <c r="A158" s="128"/>
       <c r="G158" s="324"/>
       <c r="H158" s="325"/>
@@ -32635,7 +32650,7 @@
       <c r="EB158" s="100"/>
       <c r="EC158" s="100"/>
     </row>
-    <row r="159" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:143" ht="6.75" customHeight="1">
       <c r="DN159" s="114"/>
       <c r="DO159" s="114"/>
       <c r="DP159" s="114"/>
@@ -32653,7 +32668,7 @@
       <c r="EB159" s="113"/>
       <c r="EC159" s="113"/>
     </row>
-    <row r="160" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:143" ht="6.75" customHeight="1">
       <c r="A160" s="128"/>
       <c r="G160" s="218" t="s">
         <v>14</v>
@@ -32795,7 +32810,7 @@
       <c r="EB160" s="52"/>
       <c r="EC160" s="52"/>
     </row>
-    <row r="161" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:143" ht="6.75" customHeight="1">
       <c r="A161" s="128"/>
       <c r="G161" s="220"/>
       <c r="H161" s="221"/>
@@ -32925,7 +32940,7 @@
       <c r="EB161" s="52"/>
       <c r="EC161" s="52"/>
     </row>
-    <row r="162" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:143" ht="6.75" customHeight="1">
       <c r="A162" s="128"/>
       <c r="G162" s="321" t="s">
         <v>19</v>
@@ -33063,7 +33078,7 @@
       <c r="EB162" s="52"/>
       <c r="EC162" s="52"/>
     </row>
-    <row r="163" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:143" ht="6.75" customHeight="1">
       <c r="A163" s="128"/>
       <c r="G163" s="321"/>
       <c r="H163" s="322"/>
@@ -33193,7 +33208,7 @@
       <c r="EB163" s="52"/>
       <c r="EC163" s="52"/>
     </row>
-    <row r="164" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:143" ht="6.75" customHeight="1">
       <c r="A164" s="128"/>
       <c r="G164" s="321"/>
       <c r="H164" s="322"/>
@@ -33323,7 +33338,7 @@
       <c r="EB164" s="52"/>
       <c r="EC164" s="52"/>
     </row>
-    <row r="165" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:143" ht="6.75" customHeight="1">
       <c r="A165" s="128"/>
       <c r="G165" s="321"/>
       <c r="H165" s="322"/>
@@ -33453,7 +33468,7 @@
       <c r="EB165" s="52"/>
       <c r="EC165" s="52"/>
     </row>
-    <row r="166" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:143" ht="6.75" customHeight="1">
       <c r="A166" s="128"/>
       <c r="G166" s="321"/>
       <c r="H166" s="322"/>
@@ -33583,7 +33598,7 @@
       <c r="EB166" s="52"/>
       <c r="EC166" s="52"/>
     </row>
-    <row r="167" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:143" ht="6.75" customHeight="1">
       <c r="A167" s="128"/>
       <c r="G167" s="321"/>
       <c r="H167" s="322"/>
@@ -33713,7 +33728,7 @@
       <c r="EB167" s="52"/>
       <c r="EC167" s="52"/>
     </row>
-    <row r="168" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:143" ht="6.75" customHeight="1">
       <c r="A168" s="128"/>
       <c r="G168" s="321"/>
       <c r="H168" s="322"/>
@@ -33843,7 +33858,7 @@
       <c r="EB168" s="52"/>
       <c r="EC168" s="52"/>
     </row>
-    <row r="169" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:143" ht="6.75" customHeight="1">
       <c r="A169" s="128"/>
       <c r="G169" s="324"/>
       <c r="H169" s="325"/>
@@ -33973,7 +33988,7 @@
       <c r="EB169" s="52"/>
       <c r="EC169" s="52"/>
     </row>
-    <row r="170" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A170" s="128"/>
       <c r="G170" s="218" t="s">
         <v>23</v>
@@ -34126,7 +34141,7 @@
       <c r="EL170" s="67"/>
       <c r="EM170" s="67"/>
     </row>
-    <row r="171" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A171" s="128"/>
       <c r="G171" s="220"/>
       <c r="H171" s="221"/>
@@ -34263,7 +34278,7 @@
       <c r="EL171" s="67"/>
       <c r="EM171" s="67"/>
     </row>
-    <row r="172" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A172" s="128"/>
       <c r="G172" s="321" t="s">
         <v>29</v>
@@ -34408,7 +34423,7 @@
       <c r="EL172" s="67"/>
       <c r="EM172" s="67"/>
     </row>
-    <row r="173" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A173" s="128"/>
       <c r="G173" s="321"/>
       <c r="H173" s="322"/>
@@ -34547,7 +34562,7 @@
       <c r="EL173" s="67"/>
       <c r="EM173" s="67"/>
     </row>
-    <row r="174" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A174" s="128"/>
       <c r="G174" s="321"/>
       <c r="H174" s="322"/>
@@ -34684,7 +34699,7 @@
       <c r="EL174" s="67"/>
       <c r="EM174" s="67"/>
     </row>
-    <row r="175" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A175" s="128"/>
       <c r="G175" s="321"/>
       <c r="H175" s="322"/>
@@ -34823,7 +34838,7 @@
       <c r="EL175" s="67"/>
       <c r="EM175" s="67"/>
     </row>
-    <row r="176" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A176" s="128"/>
       <c r="G176" s="321"/>
       <c r="H176" s="322"/>
@@ -34962,7 +34977,7 @@
       <c r="EL176" s="67"/>
       <c r="EM176" s="67"/>
     </row>
-    <row r="177" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:143" s="59" customFormat="1" ht="6.75" customHeight="1">
       <c r="A177" s="128"/>
       <c r="G177" s="321"/>
       <c r="H177" s="322"/>
@@ -35099,7 +35114,7 @@
       <c r="EL177" s="67"/>
       <c r="EM177" s="67"/>
     </row>
-    <row r="178" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:143" ht="6.75" customHeight="1">
       <c r="A178" s="128"/>
       <c r="G178" s="324"/>
       <c r="H178" s="325"/>
@@ -35229,7 +35244,7 @@
       <c r="EB178" s="66"/>
       <c r="EC178" s="66"/>
     </row>
-    <row r="179" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A179" s="128"/>
       <c r="G179" s="218" t="s">
         <v>36</v>
@@ -35376,7 +35391,7 @@
       <c r="EL179" s="78"/>
       <c r="EM179" s="78"/>
     </row>
-    <row r="180" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A180" s="128"/>
       <c r="G180" s="220"/>
       <c r="H180" s="221"/>
@@ -35515,7 +35530,7 @@
       <c r="EL180" s="78"/>
       <c r="EM180" s="78"/>
     </row>
-    <row r="181" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A181" s="128"/>
       <c r="G181" s="83"/>
       <c r="H181" s="322" t="s">
@@ -35658,7 +35673,7 @@
       <c r="EL181" s="78"/>
       <c r="EM181" s="78"/>
     </row>
-    <row r="182" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:143" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A182" s="128"/>
       <c r="G182" s="83"/>
       <c r="H182" s="322"/>
@@ -35799,7 +35814,7 @@
       <c r="EL182" s="78"/>
       <c r="EM182" s="78"/>
     </row>
-    <row r="183" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:143" ht="6.75" customHeight="1">
       <c r="A183" s="128"/>
       <c r="G183" s="83"/>
       <c r="H183" s="322"/>
@@ -35931,7 +35946,7 @@
       <c r="EB183" s="80"/>
       <c r="EC183" s="80"/>
     </row>
-    <row r="184" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:143" ht="6.75" customHeight="1">
       <c r="A184" s="128"/>
       <c r="G184" s="83"/>
       <c r="H184" s="322"/>
@@ -36065,7 +36080,7 @@
       <c r="EB184" s="80"/>
       <c r="EC184" s="80"/>
     </row>
-    <row r="185" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:143" ht="6.75" customHeight="1">
       <c r="A185" s="128"/>
       <c r="G185" s="83"/>
       <c r="H185" s="322"/>
@@ -36199,7 +36214,7 @@
       <c r="EB185" s="80"/>
       <c r="EC185" s="80"/>
     </row>
-    <row r="186" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:143" ht="6.75" customHeight="1">
       <c r="A186" s="128"/>
       <c r="G186" s="91"/>
       <c r="H186" s="325"/>
@@ -36329,7 +36344,7 @@
       <c r="EB186" s="80"/>
       <c r="EC186" s="80"/>
     </row>
-    <row r="187" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:143" ht="6.75" customHeight="1">
       <c r="A187" s="128"/>
       <c r="G187" s="218" t="s">
         <v>46</v>
@@ -36467,7 +36482,7 @@
       <c r="EB187" s="100"/>
       <c r="EC187" s="100"/>
     </row>
-    <row r="188" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:143" ht="6.75" customHeight="1">
       <c r="A188" s="128"/>
       <c r="G188" s="220"/>
       <c r="H188" s="221"/>
@@ -36597,7 +36612,7 @@
       <c r="EB188" s="100"/>
       <c r="EC188" s="100"/>
     </row>
-    <row r="189" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:143" ht="6.75" customHeight="1">
       <c r="A189" s="128"/>
       <c r="G189" s="321" t="s">
         <v>75</v>
@@ -36733,7 +36748,7 @@
       <c r="EB189" s="100"/>
       <c r="EC189" s="100"/>
     </row>
-    <row r="190" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:143" ht="6.75" customHeight="1">
       <c r="A190" s="128"/>
       <c r="G190" s="321"/>
       <c r="H190" s="322"/>
@@ -36863,7 +36878,7 @@
       <c r="EB190" s="100"/>
       <c r="EC190" s="100"/>
     </row>
-    <row r="191" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:143" ht="6.75" customHeight="1">
       <c r="A191" s="128"/>
       <c r="G191" s="321"/>
       <c r="H191" s="322"/>
@@ -36993,7 +37008,7 @@
       <c r="EB191" s="100"/>
       <c r="EC191" s="100"/>
     </row>
-    <row r="192" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:143" ht="6.75" customHeight="1">
       <c r="A192" s="128"/>
       <c r="G192" s="321"/>
       <c r="H192" s="322"/>
@@ -37123,7 +37138,7 @@
       <c r="EB192" s="100"/>
       <c r="EC192" s="100"/>
     </row>
-    <row r="193" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:143" ht="6.75" customHeight="1">
       <c r="A193" s="128"/>
       <c r="G193" s="324"/>
       <c r="H193" s="325"/>
@@ -37253,7 +37268,7 @@
       <c r="EB193" s="100"/>
       <c r="EC193" s="100"/>
     </row>
-    <row r="194" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:143" ht="6.75" customHeight="1">
       <c r="DN194" s="33"/>
       <c r="DO194" s="33"/>
       <c r="DP194" s="33"/>
@@ -37268,7 +37283,7 @@
       <c r="DY194" s="33"/>
       <c r="DZ194" s="33"/>
     </row>
-    <row r="195" spans="1:143" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:143" ht="6.75" customHeight="1">
       <c r="DN195" s="33"/>
       <c r="DO195" s="33"/>
       <c r="DP195" s="33"/>
@@ -37283,7 +37298,7 @@
       <c r="DY195" s="33"/>
       <c r="DZ195" s="33"/>
     </row>
-    <row r="197" spans="1:143" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:143" ht="24" customHeight="1">
       <c r="E197" s="463" t="s">
         <v>67</v>
       </c>
@@ -37389,7 +37404,7 @@
       <c r="DA197" s="463"/>
       <c r="DB197" s="463"/>
     </row>
-    <row r="198" spans="1:143" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:143" ht="24" customHeight="1">
       <c r="E198" s="463" t="s">
         <v>68</v>
       </c>
@@ -37495,7 +37510,7 @@
       <c r="DA198" s="463"/>
       <c r="DB198" s="463"/>
     </row>
-    <row r="199" spans="1:143" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:143" ht="24" customHeight="1">
       <c r="E199" s="463" t="s">
         <v>69</v>
       </c>
@@ -37601,7 +37616,7 @@
       <c r="DA199" s="463"/>
       <c r="DB199" s="463"/>
     </row>
-    <row r="200" spans="1:143" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:143" ht="24" customHeight="1">
       <c r="E200" s="463" t="s">
         <v>70</v>
       </c>
@@ -37707,8 +37722,8 @@
       <c r="DA200" s="463"/>
       <c r="DB200" s="463"/>
     </row>
-    <row r="201" spans="1:143" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" spans="1:143" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:143" ht="24" customHeight="1"/>
+    <row r="202" spans="1:143" ht="24" customHeight="1">
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
@@ -37724,7 +37739,7 @@
       <c r="EL202" s="1"/>
       <c r="EM202" s="1"/>
     </row>
-    <row r="203" spans="1:143" s="118" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:143" s="118" customFormat="1" ht="24" customHeight="1">
       <c r="G203" s="119"/>
       <c r="H203" s="119"/>
       <c r="I203" s="119"/>
@@ -37733,7 +37748,7 @@
       <c r="L203" s="119"/>
       <c r="M203" s="119"/>
     </row>
-    <row r="204" spans="1:143" s="118" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:143" s="118" customFormat="1" ht="24" customHeight="1">
       <c r="G204" s="119"/>
       <c r="H204" s="119"/>
       <c r="I204" s="119"/>
@@ -37742,7 +37757,7 @@
       <c r="L204" s="119"/>
       <c r="M204" s="119"/>
     </row>
-    <row r="205" spans="1:143" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:143" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G205" s="121"/>
       <c r="H205" s="121"/>
       <c r="I205" s="121"/>
@@ -37751,7 +37766,7 @@
       <c r="L205" s="121"/>
       <c r="M205" s="121"/>
     </row>
-    <row r="206" spans="1:143" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:143" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G206" s="121"/>
       <c r="H206" s="121"/>
       <c r="I206" s="121"/>
@@ -37760,7 +37775,7 @@
       <c r="L206" s="121"/>
       <c r="M206" s="121"/>
     </row>
-    <row r="207" spans="1:143" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:143" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G207" s="121"/>
       <c r="H207" s="121"/>
       <c r="I207" s="121"/>
@@ -37769,7 +37784,7 @@
       <c r="L207" s="121"/>
       <c r="M207" s="121"/>
     </row>
-    <row r="208" spans="1:143" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:143" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G208" s="121"/>
       <c r="H208" s="121"/>
       <c r="I208" s="121"/>
@@ -37778,7 +37793,7 @@
       <c r="L208" s="121"/>
       <c r="M208" s="121"/>
     </row>
-    <row r="209" spans="7:143" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="7:143" ht="11.25" customHeight="1">
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -37794,7 +37809,7 @@
       <c r="EL209" s="1"/>
       <c r="EM209" s="1"/>
     </row>
-    <row r="210" spans="7:143" s="118" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="7:143" s="118" customFormat="1" ht="24" customHeight="1">
       <c r="G210" s="119"/>
       <c r="H210" s="119"/>
       <c r="I210" s="119"/>
@@ -37803,7 +37818,7 @@
       <c r="L210" s="119"/>
       <c r="M210" s="119"/>
     </row>
-    <row r="211" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G211" s="121"/>
       <c r="H211" s="121"/>
       <c r="I211" s="121"/>
@@ -37812,7 +37827,7 @@
       <c r="L211" s="121"/>
       <c r="M211" s="121"/>
     </row>
-    <row r="212" spans="7:143" s="120" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="7:143" s="120" customFormat="1" ht="22.5" customHeight="1">
       <c r="G212" s="121"/>
       <c r="H212" s="121"/>
       <c r="I212" s="121"/>
@@ -37821,7 +37836,7 @@
       <c r="L212" s="121"/>
       <c r="M212" s="121"/>
     </row>
-    <row r="213" spans="7:143" s="120" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="7:143" s="120" customFormat="1" ht="12" customHeight="1">
       <c r="G213" s="121"/>
       <c r="H213" s="121"/>
       <c r="I213" s="121"/>
@@ -37830,7 +37845,7 @@
       <c r="L213" s="121"/>
       <c r="M213" s="121"/>
     </row>
-    <row r="214" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G214" s="121"/>
       <c r="H214" s="121"/>
       <c r="I214" s="121"/>
@@ -37839,7 +37854,7 @@
       <c r="L214" s="121"/>
       <c r="M214" s="121"/>
     </row>
-    <row r="215" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G215" s="121"/>
       <c r="H215" s="121"/>
       <c r="I215" s="121"/>
@@ -37848,7 +37863,7 @@
       <c r="L215" s="121"/>
       <c r="M215" s="121"/>
     </row>
-    <row r="216" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G216" s="121"/>
       <c r="H216" s="121"/>
       <c r="I216" s="121"/>
@@ -37857,7 +37872,7 @@
       <c r="L216" s="121"/>
       <c r="M216" s="121"/>
     </row>
-    <row r="217" spans="7:143" s="120" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="7:143" s="120" customFormat="1" ht="16.5" customHeight="1">
       <c r="G217" s="121"/>
       <c r="H217" s="121"/>
       <c r="I217" s="121"/>
@@ -37866,7 +37881,7 @@
       <c r="L217" s="121"/>
       <c r="M217" s="121"/>
     </row>
-    <row r="218" spans="7:143" s="120" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="7:143" s="120" customFormat="1" ht="16.5" customHeight="1">
       <c r="G218" s="121"/>
       <c r="H218" s="121"/>
       <c r="I218" s="121"/>
@@ -37875,7 +37890,7 @@
       <c r="L218" s="121"/>
       <c r="M218" s="121"/>
     </row>
-    <row r="219" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G219" s="121"/>
       <c r="H219" s="121"/>
       <c r="I219" s="121"/>
@@ -37884,7 +37899,7 @@
       <c r="L219" s="121"/>
       <c r="M219" s="121"/>
     </row>
-    <row r="220" spans="7:143" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="7:143" s="120" customFormat="1" ht="15" customHeight="1">
       <c r="G220" s="121"/>
       <c r="H220" s="121"/>
       <c r="I220" s="121"/>
@@ -37893,7 +37908,7 @@
       <c r="L220" s="121"/>
       <c r="M220" s="121"/>
     </row>
-    <row r="221" spans="7:143" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="7:143" s="120" customFormat="1" ht="15" customHeight="1">
       <c r="G221" s="121"/>
       <c r="H221" s="121"/>
       <c r="I221" s="121"/>
@@ -37902,7 +37917,7 @@
       <c r="L221" s="121"/>
       <c r="M221" s="121"/>
     </row>
-    <row r="222" spans="7:143" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="7:143" s="120" customFormat="1" ht="15" customHeight="1">
       <c r="G222" s="121"/>
       <c r="H222" s="121"/>
       <c r="I222" s="121"/>
@@ -37911,7 +37926,7 @@
       <c r="L222" s="121"/>
       <c r="M222" s="121"/>
     </row>
-    <row r="223" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="7:143" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G223" s="121"/>
       <c r="H223" s="121"/>
       <c r="I223" s="121"/>
@@ -37920,7 +37935,7 @@
       <c r="L223" s="121"/>
       <c r="M223" s="121"/>
     </row>
-    <row r="224" spans="7:143" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="7:143" s="120" customFormat="1" ht="15" customHeight="1">
       <c r="G224" s="121"/>
       <c r="H224" s="121"/>
       <c r="I224" s="121"/>
@@ -37929,7 +37944,7 @@
       <c r="L224" s="121"/>
       <c r="M224" s="121"/>
     </row>
-    <row r="225" spans="7:13" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="7:13" s="120" customFormat="1" ht="15" customHeight="1">
       <c r="G225" s="121"/>
       <c r="H225" s="121"/>
       <c r="I225" s="121"/>
@@ -37938,7 +37953,7 @@
       <c r="L225" s="121"/>
       <c r="M225" s="121"/>
     </row>
-    <row r="226" spans="7:13" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="7:13" s="120" customFormat="1" ht="15" customHeight="1">
       <c r="G226" s="121"/>
       <c r="H226" s="121"/>
       <c r="I226" s="121"/>
@@ -37947,7 +37962,7 @@
       <c r="L226" s="121"/>
       <c r="M226" s="121"/>
     </row>
-    <row r="227" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G227" s="121"/>
       <c r="H227" s="121"/>
       <c r="I227" s="121"/>
@@ -37956,7 +37971,7 @@
       <c r="L227" s="121"/>
       <c r="M227" s="121"/>
     </row>
-    <row r="228" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G228" s="121"/>
       <c r="H228" s="121"/>
       <c r="I228" s="121"/>
@@ -37965,7 +37980,7 @@
       <c r="L228" s="121"/>
       <c r="M228" s="121"/>
     </row>
-    <row r="229" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G229" s="121"/>
       <c r="H229" s="121"/>
       <c r="I229" s="121"/>
@@ -37974,7 +37989,7 @@
       <c r="L229" s="121"/>
       <c r="M229" s="121"/>
     </row>
-    <row r="230" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G230" s="121"/>
       <c r="H230" s="121"/>
       <c r="I230" s="121"/>
@@ -37983,7 +37998,7 @@
       <c r="L230" s="121"/>
       <c r="M230" s="121"/>
     </row>
-    <row r="231" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G231" s="121"/>
       <c r="H231" s="121"/>
       <c r="I231" s="121"/>
@@ -37992,7 +38007,7 @@
       <c r="L231" s="121"/>
       <c r="M231" s="121"/>
     </row>
-    <row r="232" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G232" s="121"/>
       <c r="H232" s="121"/>
       <c r="I232" s="121"/>
@@ -38001,7 +38016,7 @@
       <c r="L232" s="121"/>
       <c r="M232" s="121"/>
     </row>
-    <row r="233" spans="7:13" s="123" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="7:13" s="123" customFormat="1" ht="24" customHeight="1">
       <c r="G233" s="122"/>
       <c r="H233" s="122"/>
       <c r="I233" s="122"/>
@@ -38010,7 +38025,7 @@
       <c r="L233" s="122"/>
       <c r="M233" s="122"/>
     </row>
-    <row r="234" spans="7:13" s="125" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="7:13" s="125" customFormat="1" ht="15" customHeight="1">
       <c r="G234" s="124"/>
       <c r="H234" s="124"/>
       <c r="I234" s="124"/>
@@ -38019,7 +38034,7 @@
       <c r="L234" s="124"/>
       <c r="M234" s="124"/>
     </row>
-    <row r="235" spans="7:13" s="125" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="7:13" s="125" customFormat="1" ht="15" customHeight="1">
       <c r="G235" s="124"/>
       <c r="H235" s="124"/>
       <c r="I235" s="124"/>
@@ -38028,7 +38043,7 @@
       <c r="L235" s="124"/>
       <c r="M235" s="124"/>
     </row>
-    <row r="236" spans="7:13" s="125" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="7:13" s="125" customFormat="1" ht="15" customHeight="1">
       <c r="G236" s="124"/>
       <c r="H236" s="124"/>
       <c r="I236" s="124"/>
@@ -38037,7 +38052,7 @@
       <c r="L236" s="124"/>
       <c r="M236" s="124"/>
     </row>
-    <row r="237" spans="7:13" s="125" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="7:13" s="125" customFormat="1" ht="15.75" customHeight="1">
       <c r="G237" s="124"/>
       <c r="H237" s="124"/>
       <c r="I237" s="124"/>
@@ -38046,7 +38061,7 @@
       <c r="L237" s="124"/>
       <c r="M237" s="124"/>
     </row>
-    <row r="238" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G238" s="121"/>
       <c r="H238" s="121"/>
       <c r="I238" s="121"/>
@@ -38055,7 +38070,7 @@
       <c r="L238" s="121"/>
       <c r="M238" s="121"/>
     </row>
-    <row r="239" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G239" s="121"/>
       <c r="H239" s="121"/>
       <c r="I239" s="121"/>
@@ -38064,7 +38079,7 @@
       <c r="L239" s="121"/>
       <c r="M239" s="121"/>
     </row>
-    <row r="240" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G240" s="121"/>
       <c r="H240" s="121"/>
       <c r="I240" s="121"/>
@@ -38073,7 +38088,7 @@
       <c r="L240" s="121"/>
       <c r="M240" s="121"/>
     </row>
-    <row r="241" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G241" s="121"/>
       <c r="H241" s="121"/>
       <c r="I241" s="121"/>
@@ -38082,7 +38097,7 @@
       <c r="L241" s="121"/>
       <c r="M241" s="121"/>
     </row>
-    <row r="242" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G242" s="121"/>
       <c r="H242" s="121"/>
       <c r="I242" s="121"/>
@@ -38091,7 +38106,7 @@
       <c r="L242" s="121"/>
       <c r="M242" s="121"/>
     </row>
-    <row r="243" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G243" s="121"/>
       <c r="H243" s="121"/>
       <c r="I243" s="121"/>
@@ -38100,7 +38115,7 @@
       <c r="L243" s="121"/>
       <c r="M243" s="121"/>
     </row>
-    <row r="244" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G244" s="121"/>
       <c r="H244" s="121"/>
       <c r="I244" s="121"/>
@@ -38109,7 +38124,7 @@
       <c r="L244" s="121"/>
       <c r="M244" s="121"/>
     </row>
-    <row r="245" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G245" s="121"/>
       <c r="H245" s="121"/>
       <c r="I245" s="121"/>
@@ -38118,7 +38133,7 @@
       <c r="L245" s="121"/>
       <c r="M245" s="121"/>
     </row>
-    <row r="246" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G246" s="121"/>
       <c r="H246" s="121"/>
       <c r="I246" s="121"/>
@@ -38127,7 +38142,7 @@
       <c r="L246" s="121"/>
       <c r="M246" s="121"/>
     </row>
-    <row r="247" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G247" s="121"/>
       <c r="H247" s="121"/>
       <c r="I247" s="121"/>
@@ -38136,7 +38151,7 @@
       <c r="L247" s="121"/>
       <c r="M247" s="121"/>
     </row>
-    <row r="248" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G248" s="121"/>
       <c r="H248" s="121"/>
       <c r="I248" s="121"/>
@@ -38145,7 +38160,7 @@
       <c r="L248" s="121"/>
       <c r="M248" s="121"/>
     </row>
-    <row r="249" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G249" s="121"/>
       <c r="H249" s="121"/>
       <c r="I249" s="121"/>
@@ -38154,7 +38169,7 @@
       <c r="L249" s="121"/>
       <c r="M249" s="121"/>
     </row>
-    <row r="250" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G250" s="121"/>
       <c r="H250" s="121"/>
       <c r="I250" s="121"/>
@@ -38163,7 +38178,7 @@
       <c r="L250" s="121"/>
       <c r="M250" s="121"/>
     </row>
-    <row r="251" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G251" s="121"/>
       <c r="H251" s="121"/>
       <c r="I251" s="121"/>
@@ -38172,7 +38187,7 @@
       <c r="L251" s="121"/>
       <c r="M251" s="121"/>
     </row>
-    <row r="252" spans="7:13" s="118" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="7:13" s="118" customFormat="1" ht="24" customHeight="1">
       <c r="G252" s="119"/>
       <c r="H252" s="119"/>
       <c r="I252" s="119"/>
@@ -38181,7 +38196,7 @@
       <c r="L252" s="119"/>
       <c r="M252" s="119"/>
     </row>
-    <row r="253" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G253" s="121"/>
       <c r="H253" s="121"/>
       <c r="I253" s="121"/>
@@ -38190,7 +38205,7 @@
       <c r="L253" s="121"/>
       <c r="M253" s="121"/>
     </row>
-    <row r="254" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G254" s="121"/>
       <c r="H254" s="121"/>
       <c r="I254" s="121"/>
@@ -38199,7 +38214,7 @@
       <c r="L254" s="121"/>
       <c r="M254" s="121"/>
     </row>
-    <row r="255" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G255" s="121"/>
       <c r="H255" s="121"/>
       <c r="I255" s="121"/>
@@ -38208,7 +38223,7 @@
       <c r="L255" s="121"/>
       <c r="M255" s="121"/>
     </row>
-    <row r="256" spans="7:13" s="118" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="7:13" s="118" customFormat="1" ht="24" customHeight="1">
       <c r="G256" s="119"/>
       <c r="H256" s="119"/>
       <c r="I256" s="119"/>
@@ -38217,7 +38232,7 @@
       <c r="L256" s="119"/>
       <c r="M256" s="119"/>
     </row>
-    <row r="257" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G257" s="121"/>
       <c r="H257" s="121"/>
       <c r="I257" s="121"/>
@@ -38226,7 +38241,7 @@
       <c r="L257" s="121"/>
       <c r="M257" s="121"/>
     </row>
-    <row r="258" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G258" s="121"/>
       <c r="H258" s="121"/>
       <c r="I258" s="121"/>
@@ -38235,7 +38250,7 @@
       <c r="L258" s="121"/>
       <c r="M258" s="121"/>
     </row>
-    <row r="259" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G259" s="121"/>
       <c r="H259" s="121"/>
       <c r="I259" s="121"/>
@@ -38244,7 +38259,7 @@
       <c r="L259" s="121"/>
       <c r="M259" s="121"/>
     </row>
-    <row r="260" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G260" s="121"/>
       <c r="H260" s="121"/>
       <c r="I260" s="121"/>
@@ -38253,7 +38268,7 @@
       <c r="L260" s="121"/>
       <c r="M260" s="121"/>
     </row>
-    <row r="261" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G261" s="121"/>
       <c r="H261" s="121"/>
       <c r="I261" s="121"/>
@@ -38262,7 +38277,7 @@
       <c r="L261" s="121"/>
       <c r="M261" s="121"/>
     </row>
-    <row r="262" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G262" s="121"/>
       <c r="H262" s="121"/>
       <c r="I262" s="121"/>
@@ -38271,7 +38286,7 @@
       <c r="L262" s="121"/>
       <c r="M262" s="121"/>
     </row>
-    <row r="263" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G263" s="121"/>
       <c r="H263" s="121"/>
       <c r="I263" s="121"/>
@@ -38280,7 +38295,7 @@
       <c r="L263" s="121"/>
       <c r="M263" s="121"/>
     </row>
-    <row r="264" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G264" s="121"/>
       <c r="H264" s="121"/>
       <c r="I264" s="121"/>
@@ -38289,7 +38304,7 @@
       <c r="L264" s="121"/>
       <c r="M264" s="121"/>
     </row>
-    <row r="265" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G265" s="121"/>
       <c r="H265" s="121"/>
       <c r="I265" s="121"/>
@@ -38298,7 +38313,7 @@
       <c r="L265" s="121"/>
       <c r="M265" s="121"/>
     </row>
-    <row r="266" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G266" s="121"/>
       <c r="H266" s="121"/>
       <c r="I266" s="121"/>
@@ -38307,7 +38322,7 @@
       <c r="L266" s="121"/>
       <c r="M266" s="121"/>
     </row>
-    <row r="267" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G267" s="121"/>
       <c r="H267" s="121"/>
       <c r="I267" s="121"/>
@@ -38316,7 +38331,7 @@
       <c r="L267" s="121"/>
       <c r="M267" s="121"/>
     </row>
-    <row r="268" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G268" s="121"/>
       <c r="H268" s="121"/>
       <c r="I268" s="121"/>
@@ -38325,7 +38340,7 @@
       <c r="L268" s="121"/>
       <c r="M268" s="121"/>
     </row>
-    <row r="269" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G269" s="121"/>
       <c r="H269" s="121"/>
       <c r="I269" s="121"/>
@@ -38334,7 +38349,7 @@
       <c r="L269" s="121"/>
       <c r="M269" s="121"/>
     </row>
-    <row r="270" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G270" s="121"/>
       <c r="H270" s="121"/>
       <c r="I270" s="121"/>
@@ -38343,7 +38358,7 @@
       <c r="L270" s="121"/>
       <c r="M270" s="121"/>
     </row>
-    <row r="271" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="7:13" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="G271" s="121"/>
       <c r="H271" s="121"/>
       <c r="I271" s="121"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者資格取得届_テンプレート.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D816B924-1B2E-44FC-8243-FBC32CE7B7E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -916,7 +915,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-411]ggg"/>
     <numFmt numFmtId="165" formatCode="00000000;;"/>
@@ -925,7 +924,7 @@
     <numFmt numFmtId="168" formatCode="#,##0;[Red]\-#,##0;"/>
     <numFmt numFmtId="169" formatCode="0_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,12 +1193,6 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2834,13 +2827,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13889,7 +13882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:EM271"/>
   <sheetViews>
